--- a/tests/test1/d40/ЛМ, 0.5.xlsx
+++ b/tests/test1/d40/ЛМ, 0.5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -585,7 +585,7 @@
         <v>40.94593800018834</v>
       </c>
       <c r="G2" t="n">
-        <v>96.3780102193555</v>
+        <v>96.3780102193556</v>
       </c>
       <c r="H2" t="n">
         <v>12.17400677290427</v>
@@ -609,28 +609,28 @@
         <v>38.28184535070894</v>
       </c>
       <c r="O2" t="n">
-        <v>23.03380320904799</v>
+        <v>23.03380320904798</v>
       </c>
       <c r="P2" t="n">
-        <v>39.88663141621583</v>
+        <v>39.88663141621582</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.05343247581782488</v>
+        <v>0.05343247581782248</v>
       </c>
       <c r="R2" t="n">
-        <v>1.324428534002625</v>
+        <v>1.324428534002491</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6168691931224318</v>
+        <v>0.6168691931223649</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4339796944820121</v>
+        <v>0.4339796944820009</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2496695044153693</v>
+        <v>0.2496695044153694</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2873161314789867</v>
+        <v>0.287316131478976</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.002715699999999543</v>
+        <v>0.002129300000000001</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -664,10 +664,10 @@
         <v>0.007712558961466278</v>
       </c>
       <c r="F3" t="n">
-        <v>38.53162291541391</v>
+        <v>38.5316229154139</v>
       </c>
       <c r="G3" t="n">
-        <v>75.90287011011502</v>
+        <v>75.90287011011506</v>
       </c>
       <c r="H3" t="n">
         <v>10.95549475112431</v>
@@ -694,25 +694,25 @@
         <v>19.59643865042895</v>
       </c>
       <c r="P3" t="n">
-        <v>41.52237545791923</v>
+        <v>41.52237545791922</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04944848748065332</v>
+        <v>0.04944848748065268</v>
       </c>
       <c r="R3" t="n">
-        <v>1.170097274515752</v>
+        <v>1.170097274515675</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5327178777434315</v>
+        <v>0.5327178777433994</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5799693040033661</v>
+        <v>0.5799693040033571</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2485106795638248</v>
+        <v>0.2485106795638245</v>
       </c>
       <c r="V3" t="n">
-        <v>0.270450348452151</v>
+        <v>0.270450348452153</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.004933999999998662</v>
+        <v>0.002595300000002965</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -746,13 +746,13 @@
         <v>0.06235879746880276</v>
       </c>
       <c r="F4" t="n">
-        <v>41.07704904766565</v>
+        <v>41.07704904766566</v>
       </c>
       <c r="G4" t="n">
-        <v>105.5373502624745</v>
+        <v>105.5373502624748</v>
       </c>
       <c r="H4" t="n">
-        <v>3.290505342567496</v>
+        <v>3.290505342567498</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -776,25 +776,25 @@
         <v>7.643414919634814</v>
       </c>
       <c r="P4" t="n">
-        <v>37.7382658388012</v>
+        <v>37.73826583880118</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.04751092312304267</v>
+        <v>0.04751092312304132</v>
       </c>
       <c r="R4" t="n">
-        <v>1.022617559580097</v>
+        <v>1.022617559580101</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2422423397643331</v>
+        <v>0.2422423397643296</v>
       </c>
       <c r="T4" t="n">
-        <v>1.265743028044354</v>
+        <v>1.265743028044302</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2637256524058195</v>
+        <v>0.2637256524058196</v>
       </c>
       <c r="V4" t="n">
-        <v>0.747468391409967</v>
+        <v>0.7474683914099722</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002075199999998389</v>
+        <v>0.001717800000001546</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -861,22 +861,22 @@
         <v>35.65611115111762</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04731858579391417</v>
+        <v>0.04731858579391172</v>
       </c>
       <c r="R5" t="n">
-        <v>1.11942636423474</v>
+        <v>1.119426364234537</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5120950333731612</v>
+        <v>0.5120950333730648</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3938852776514263</v>
+        <v>0.3938852776514137</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2610345649250758</v>
+        <v>0.2610345649250757</v>
       </c>
       <c r="V5" t="n">
-        <v>0.391259736156317</v>
+        <v>0.3912597361563184</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.0024822000000011</v>
+        <v>0.001956399999997416</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -910,13 +910,13 @@
         <v>0.004953713397312903</v>
       </c>
       <c r="F6" t="n">
-        <v>40.30866820615942</v>
+        <v>40.30866820615943</v>
       </c>
       <c r="G6" t="n">
-        <v>175.2163492896443</v>
+        <v>175.2163492896444</v>
       </c>
       <c r="H6" t="n">
-        <v>10.59742323463554</v>
+        <v>10.59742323463556</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -940,25 +940,25 @@
         <v>5.103403997517195</v>
       </c>
       <c r="P6" t="n">
-        <v>25.11927281663414</v>
+        <v>25.11927281663413</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03916132823241453</v>
+        <v>0.03916132823241429</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8611307601359192</v>
+        <v>0.8611307601359298</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1301150763045203</v>
+        <v>0.1301150763045199</v>
       </c>
       <c r="T6" t="n">
-        <v>1.290563708551711</v>
+        <v>1.290563708551705</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2351969864604554</v>
+        <v>0.2351969864604555</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3800932695314522</v>
+        <v>0.3800932695314587</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.002055000000000362</v>
+        <v>0.001609200000004307</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -992,13 +992,13 @@
         <v>359.9217463330018</v>
       </c>
       <c r="F7" t="n">
-        <v>41.1830344518105</v>
+        <v>41.18303445181051</v>
       </c>
       <c r="G7" t="n">
-        <v>39.12200799989583</v>
+        <v>39.12200799989586</v>
       </c>
       <c r="H7" t="n">
-        <v>14.55658428885788</v>
+        <v>14.55658428885787</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>13.10801612355312</v>
       </c>
       <c r="P7" t="n">
-        <v>53.5126143215329</v>
+        <v>53.51261432153291</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.05478416450465169</v>
+        <v>0.05478416450464803</v>
       </c>
       <c r="R7" t="n">
-        <v>1.395101719828965</v>
+        <v>1.395101719828741</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5289773723312498</v>
+        <v>0.5289773723311475</v>
       </c>
       <c r="T7" t="n">
-        <v>1.149604274625891</v>
+        <v>1.149604274625744</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2397908992877446</v>
+        <v>0.2397908992877445</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3201587139802631</v>
+        <v>0.320158713980261</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002273399999999981</v>
+        <v>0.001904199999998468</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1074,13 +1074,13 @@
         <v>0.02528355616928252</v>
       </c>
       <c r="F8" t="n">
-        <v>39.65999001915301</v>
+        <v>39.659990019153</v>
       </c>
       <c r="G8" t="n">
         <v>164.6610883579134</v>
       </c>
       <c r="H8" t="n">
-        <v>7.943463664207115</v>
+        <v>7.943463664207107</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>28.09696863373241</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04265127026334565</v>
+        <v>0.04265127026334584</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7982054725757137</v>
+        <v>0.7982054725757004</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1814965394969287</v>
+        <v>0.1814965394969274</v>
       </c>
       <c r="T8" t="n">
-        <v>1.029698465809566</v>
+        <v>1.029698465809572</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2321814085931182</v>
+        <v>0.2321814085931183</v>
       </c>
       <c r="V8" t="n">
-        <v>0.540112945926932</v>
+        <v>0.5401129459269282</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002193399999999457</v>
+        <v>0.001646899999997231</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1159,7 +1159,7 @@
         <v>37.94418857306314</v>
       </c>
       <c r="G9" t="n">
-        <v>13.70682602975939</v>
+        <v>13.7068260297594</v>
       </c>
       <c r="H9" t="n">
         <v>10.75524493195391</v>
@@ -1189,22 +1189,22 @@
         <v>48.0562743619587</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04550144107503137</v>
+        <v>0.04550144107503099</v>
       </c>
       <c r="R9" t="n">
-        <v>1.229788143179001</v>
+        <v>1.229788143179006</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2207979502683165</v>
+        <v>0.2207979502683122</v>
       </c>
       <c r="T9" t="n">
-        <v>1.916748420418184</v>
+        <v>1.916748420418164</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2371548507460414</v>
+        <v>0.2371548507460413</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4724753336833508</v>
+        <v>0.4724753336833519</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.001813399999999632</v>
+        <v>0.001457100000003209</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1238,7 +1238,7 @@
         <v>359.9565181963595</v>
       </c>
       <c r="F10" t="n">
-        <v>41.00767950820259</v>
+        <v>41.00767950820258</v>
       </c>
       <c r="G10" t="n">
         <v>155.9621457903552</v>
@@ -1265,19 +1265,19 @@
         <v>22.65229206771021</v>
       </c>
       <c r="O10" t="n">
-        <v>20.59440056940893</v>
+        <v>20.59440056940891</v>
       </c>
       <c r="P10" t="n">
-        <v>23.74031100046367</v>
+        <v>23.74031100046366</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.04835348069155542</v>
+        <v>0.04835348069155378</v>
       </c>
       <c r="R10" t="n">
-        <v>1.022469032180856</v>
+        <v>1.022469032180771</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3456704137631305</v>
+        <v>0.3456704137631025</v>
       </c>
       <c r="T10" t="n">
         <v>0.3333441811657177</v>
@@ -1286,7 +1286,7 @@
         <v>0.2736162118285627</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1355098049349451</v>
+        <v>0.1355098049349443</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.002264300000000219</v>
+        <v>0.001982599999998058</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -1320,13 +1320,13 @@
         <v>359.9809056766931</v>
       </c>
       <c r="F11" t="n">
-        <v>41.15728417290167</v>
+        <v>41.15728417290166</v>
       </c>
       <c r="G11" t="n">
         <v>2.270661456085566</v>
       </c>
       <c r="H11" t="n">
-        <v>7.84834466581967</v>
+        <v>7.848344665819653</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1350,25 +1350,25 @@
         <v>1.827386892604945</v>
       </c>
       <c r="P11" t="n">
-        <v>47.9759371358404</v>
+        <v>47.97593713584037</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0403906566238682</v>
+        <v>0.04039065662386808</v>
       </c>
       <c r="R11" t="n">
-        <v>2.152641018839741</v>
+        <v>2.152641018839727</v>
       </c>
       <c r="S11" t="n">
-        <v>0.130789127802879</v>
+        <v>0.1307891278028789</v>
       </c>
       <c r="T11" t="n">
-        <v>3.384595968117169</v>
+        <v>3.384595968117141</v>
       </c>
       <c r="U11" t="n">
         <v>0.261752964407622</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3485312029406117</v>
+        <v>0.3485312029406173</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001899200000000434</v>
+        <v>0.001477000000001283</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1402,13 +1402,13 @@
         <v>359.9592795193149</v>
       </c>
       <c r="F12" t="n">
-        <v>40.17167570883183</v>
+        <v>40.17167570883184</v>
       </c>
       <c r="G12" t="n">
-        <v>139.7169557032195</v>
+        <v>139.7169557032196</v>
       </c>
       <c r="H12" t="n">
-        <v>3.379206060097849</v>
+        <v>3.379206060097862</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1432,25 +1432,25 @@
         <v>6.232852700582916</v>
       </c>
       <c r="P12" t="n">
-        <v>34.66679066176436</v>
+        <v>34.66679066176435</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.04413749595430292</v>
+        <v>0.04413749595430221</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9656484761197919</v>
+        <v>0.9656484761197853</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1924289930769129</v>
+        <v>0.1924289930769139</v>
       </c>
       <c r="T12" t="n">
-        <v>1.360431352941708</v>
+        <v>1.360431352941672</v>
       </c>
       <c r="U12" t="n">
         <v>0.2223944434288972</v>
       </c>
       <c r="V12" t="n">
-        <v>0.1334737215184552</v>
+        <v>0.133473721518469</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.001957600000000781</v>
+        <v>0.001614799999998695</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1487,10 +1487,10 @@
         <v>37.92722728274295</v>
       </c>
       <c r="G13" t="n">
-        <v>30.88436469378714</v>
+        <v>30.88436469378722</v>
       </c>
       <c r="H13" t="n">
-        <v>2.893371297958037</v>
+        <v>2.893371297958028</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1514,25 +1514,25 @@
         <v>4.435052590402809</v>
       </c>
       <c r="P13" t="n">
-        <v>38.40558834667708</v>
+        <v>38.40558834667706</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.04134782082243865</v>
+        <v>0.04134782082243758</v>
       </c>
       <c r="R13" t="n">
-        <v>1.118070115407435</v>
+        <v>1.118070115407415</v>
       </c>
       <c r="S13" t="n">
-        <v>0.163400316443532</v>
+        <v>0.1634003164435301</v>
       </c>
       <c r="T13" t="n">
-        <v>1.75987499615216</v>
+        <v>1.75987499615209</v>
       </c>
       <c r="U13" t="n">
         <v>0.2407560689574942</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4342242173448791</v>
+        <v>0.434224217344884</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002043899999998544</v>
+        <v>0.002120200000000239</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1566,13 +1566,13 @@
         <v>0.04657356012651374</v>
       </c>
       <c r="F14" t="n">
-        <v>41.84601040059052</v>
+        <v>41.84601040059053</v>
       </c>
       <c r="G14" t="n">
-        <v>26.93724884632157</v>
+        <v>26.93724884632159</v>
       </c>
       <c r="H14" t="n">
-        <v>13.22845162570685</v>
+        <v>13.22845162570684</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1596,25 +1596,25 @@
         <v>8.938095157444673</v>
       </c>
       <c r="P14" t="n">
-        <v>54.03767376752352</v>
+        <v>54.03767376752351</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.05362620589003484</v>
+        <v>0.05362620589003309</v>
       </c>
       <c r="R14" t="n">
-        <v>1.371555776825212</v>
+        <v>1.371555776825178</v>
       </c>
       <c r="S14" t="n">
-        <v>0.3957068208610285</v>
+        <v>0.3957068208610083</v>
       </c>
       <c r="T14" t="n">
-        <v>1.532097783971898</v>
+        <v>1.532097783971826</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2517382930104577</v>
+        <v>0.2517382930104576</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4324466644331503</v>
+        <v>0.432446664433147</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.00194729999999943</v>
+        <v>0.001778199999996843</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1651,10 +1651,10 @@
         <v>40.40576680228151</v>
       </c>
       <c r="G15" t="n">
-        <v>137.9508147327239</v>
+        <v>137.9508147327238</v>
       </c>
       <c r="H15" t="n">
-        <v>5.799687235600996</v>
+        <v>5.799687235600998</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1678,25 +1678,25 @@
         <v>10.13086058891431</v>
       </c>
       <c r="P15" t="n">
-        <v>33.13806417793894</v>
+        <v>33.13806417793895</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.04685697948256237</v>
+        <v>0.04685697948256293</v>
       </c>
       <c r="R15" t="n">
-        <v>0.9288472719039407</v>
+        <v>0.9288472719040133</v>
       </c>
       <c r="S15" t="n">
-        <v>0.2599776117675684</v>
+        <v>0.2599776117675874</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8965085166724756</v>
+        <v>0.8965085166724797</v>
       </c>
       <c r="U15" t="n">
         <v>0.2192812195022447</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1199206186169092</v>
+        <v>0.1199206186169102</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002001100000001088</v>
+        <v>0.001611900000000333</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1727,16 +1727,16 @@
         <v>12.27798062495156</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09101814383960521</v>
+        <v>0.09101814383959249</v>
       </c>
       <c r="F16" t="n">
-        <v>39.67692140075356</v>
+        <v>39.67692140075361</v>
       </c>
       <c r="G16" t="n">
         <v>91.76129060180909</v>
       </c>
       <c r="H16" t="n">
-        <v>12.15909731016996</v>
+        <v>12.15909731016998</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1757,28 +1757,28 @@
         <v>40.02752228674725</v>
       </c>
       <c r="O16" t="n">
-        <v>23.36579684733992</v>
+        <v>23.36579684733993</v>
       </c>
       <c r="P16" t="n">
-        <v>39.88277489153107</v>
+        <v>39.88277489153113</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.04986758104172876</v>
+        <v>0.04986758104173061</v>
       </c>
       <c r="R16" t="n">
-        <v>1.261788685239486</v>
+        <v>1.261788685239505</v>
       </c>
       <c r="S16" t="n">
-        <v>0.6076777941436773</v>
+        <v>0.6076777941436999</v>
       </c>
       <c r="T16" t="n">
-        <v>0.4371042954419778</v>
+        <v>0.4371042954419956</v>
       </c>
       <c r="U16" t="n">
-        <v>0.2596923111210392</v>
+        <v>0.2596923111210394</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0547879556955988</v>
+        <v>0.05478795569558434</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002458900000000597</v>
+        <v>0.001938899999998966</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1818,7 +1818,7 @@
         <v>154.0309201138796</v>
       </c>
       <c r="H17" t="n">
-        <v>5.238841200658175</v>
+        <v>5.238841200658178</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1842,25 +1842,25 @@
         <v>7.13218350637622</v>
       </c>
       <c r="P17" t="n">
-        <v>31.75292590255716</v>
+        <v>31.75292590255715</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.04374281756395729</v>
+        <v>0.04374281756395818</v>
       </c>
       <c r="R17" t="n">
-        <v>0.8772147913910855</v>
+        <v>0.8772147913910588</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1933222809078985</v>
+        <v>0.1933222809079023</v>
       </c>
       <c r="T17" t="n">
-        <v>1.165762974603669</v>
+        <v>1.165762974603696</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2504016015517769</v>
+        <v>0.2504016015517768</v>
       </c>
       <c r="V17" t="n">
-        <v>0.09782750920249093</v>
+        <v>0.09782750920249314</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.003979000000001065</v>
+        <v>0.001804499999998654</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1894,13 +1894,13 @@
         <v>0.01730360799687721</v>
       </c>
       <c r="F18" t="n">
-        <v>37.88589854318209</v>
+        <v>37.8858985431821</v>
       </c>
       <c r="G18" t="n">
-        <v>42.14303482523432</v>
+        <v>42.14303482523428</v>
       </c>
       <c r="H18" t="n">
-        <v>8.080324554447547</v>
+        <v>8.080324554447557</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1924,25 +1924,25 @@
         <v>10.26326621506615</v>
       </c>
       <c r="P18" t="n">
-        <v>43.1495520380593</v>
+        <v>43.14955203805932</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04719476164853609</v>
+        <v>0.04719476164853588</v>
       </c>
       <c r="R18" t="n">
-        <v>1.027688529802589</v>
+        <v>1.027688529802627</v>
       </c>
       <c r="S18" t="n">
-        <v>0.3228288451079351</v>
+        <v>0.3228288451079446</v>
       </c>
       <c r="T18" t="n">
-        <v>1.073526631262747</v>
+        <v>1.07352663126274</v>
       </c>
       <c r="U18" t="n">
-        <v>0.2132862474059452</v>
+        <v>0.2132862474059451</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5103893054449624</v>
+        <v>0.5103893054449581</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.001955800000001062</v>
+        <v>0.001596599999999171</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -1976,13 +1976,13 @@
         <v>359.9104544221117</v>
       </c>
       <c r="F19" t="n">
-        <v>39.71362645364226</v>
+        <v>39.71362645364229</v>
       </c>
       <c r="G19" t="n">
         <v>48.80568584628811</v>
       </c>
       <c r="H19" t="n">
-        <v>10.24535481475368</v>
+        <v>10.24535481475369</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2003,28 +2003,28 @@
         <v>45.29448328127268</v>
       </c>
       <c r="O19" t="n">
-        <v>12.91057125356025</v>
+        <v>12.91057125356026</v>
       </c>
       <c r="P19" t="n">
-        <v>46.36665577250515</v>
+        <v>46.36665577250519</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.05136644195740212</v>
+        <v>0.05136644195740537</v>
       </c>
       <c r="R19" t="n">
-        <v>1.195282182308973</v>
+        <v>1.19528218230901</v>
       </c>
       <c r="S19" t="n">
-        <v>0.4330909352570371</v>
+        <v>0.4330909352570723</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9705404316183307</v>
+        <v>0.9705404316184141</v>
       </c>
       <c r="U19" t="n">
         <v>0.2575940218366676</v>
       </c>
       <c r="V19" t="n">
-        <v>0.3901067207562073</v>
+        <v>0.3901067207562039</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.004990600000001066</v>
+        <v>0.001791400000001886</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2058,13 +2058,13 @@
         <v>359.8324369817817</v>
       </c>
       <c r="F20" t="n">
-        <v>41.43410035788798</v>
+        <v>41.43410035788794</v>
       </c>
       <c r="G20" t="n">
         <v>111.014019977707</v>
       </c>
       <c r="H20" t="n">
-        <v>9.509472924147801</v>
+        <v>9.50947292414779</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2085,28 +2085,28 @@
         <v>34.20258136458548</v>
       </c>
       <c r="O20" t="n">
-        <v>18.62265913181608</v>
+        <v>18.62265913181607</v>
       </c>
       <c r="P20" t="n">
-        <v>36.64408970237875</v>
+        <v>36.64408970237869</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.05300098890422415</v>
+        <v>0.05300098890421964</v>
       </c>
       <c r="R20" t="n">
-        <v>1.214163397071185</v>
+        <v>1.214163397070975</v>
       </c>
       <c r="S20" t="n">
-        <v>0.4735894736190632</v>
+        <v>0.4735894736189716</v>
       </c>
       <c r="T20" t="n">
-        <v>0.5092647535902479</v>
+        <v>0.5092647535902224</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2552845080390656</v>
+        <v>0.2552845080390658</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4212846592468632</v>
+        <v>0.421284659246856</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002428800000000564</v>
+        <v>0.00217760000000311</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2170,16 +2170,16 @@
         <v>6.193601797795425</v>
       </c>
       <c r="P21" t="n">
-        <v>51.85798496086797</v>
+        <v>51.85798496086799</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.04886825404221215</v>
+        <v>0.04886825404221212</v>
       </c>
       <c r="R21" t="n">
-        <v>1.270938771718018</v>
+        <v>1.270938771718014</v>
       </c>
       <c r="S21" t="n">
-        <v>0.2786363471234088</v>
+        <v>0.2786363471234061</v>
       </c>
       <c r="T21" t="n">
         <v>1.829290149234126</v>
@@ -2188,7 +2188,7 @@
         <v>0.2412127272608649</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1813469933621624</v>
+        <v>0.1813469933621644</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.003836000000001505</v>
+        <v>0.001376400000005162</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2222,13 +2222,13 @@
         <v>0.06240849175385547</v>
       </c>
       <c r="F22" t="n">
-        <v>38.42925166164795</v>
+        <v>38.42925166164792</v>
       </c>
       <c r="G22" t="n">
         <v>107.598960550654</v>
       </c>
       <c r="H22" t="n">
-        <v>13.01908264793021</v>
+        <v>13.01908264793019</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2252,25 +2252,25 @@
         <v>27.38382607254253</v>
       </c>
       <c r="P22" t="n">
-        <v>35.01256628675493</v>
+        <v>35.01256628675489</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.04789369912276493</v>
+        <v>0.04789369912276501</v>
       </c>
       <c r="R22" t="n">
-        <v>1.181074765287618</v>
+        <v>1.181074765287638</v>
       </c>
       <c r="S22" t="n">
-        <v>0.5950090174110467</v>
+        <v>0.5950090174110564</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2939331885570086</v>
+        <v>0.2939331885570098</v>
       </c>
       <c r="U22" t="n">
-        <v>0.235548589431117</v>
+        <v>0.2355485894311171</v>
       </c>
       <c r="V22" t="n">
-        <v>0.2861437125931602</v>
+        <v>0.2861437125931647</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002684399999999698</v>
+        <v>0.002195600000000297</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2304,13 +2304,13 @@
         <v>359.9324062778165</v>
       </c>
       <c r="F23" t="n">
-        <v>41.87612583435618</v>
+        <v>41.87612583435617</v>
       </c>
       <c r="G23" t="n">
         <v>8.983498828549815</v>
       </c>
       <c r="H23" t="n">
-        <v>8.60564692177387</v>
+        <v>8.605646921773873</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2337,22 +2337,22 @@
         <v>49.53531855721663</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.04535485135888694</v>
+        <v>0.04535485135888688</v>
       </c>
       <c r="R23" t="n">
-        <v>1.675502277398224</v>
+        <v>1.675502277398237</v>
       </c>
       <c r="S23" t="n">
-        <v>0.1810340215981374</v>
+        <v>0.1810340215981365</v>
       </c>
       <c r="T23" t="n">
-        <v>2.715128803789435</v>
+        <v>2.715128803789449</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2532443369218858</v>
+        <v>0.2532443369218859</v>
       </c>
       <c r="V23" t="n">
-        <v>1.037205839007763</v>
+        <v>1.037205839007764</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001738500000000087</v>
+        <v>0.00166719999999998</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2389,7 +2389,7 @@
         <v>41.5416157496778</v>
       </c>
       <c r="G24" t="n">
-        <v>43.45461639330481</v>
+        <v>43.4546163933048</v>
       </c>
       <c r="H24" t="n">
         <v>7.849116141109347</v>
@@ -2416,25 +2416,25 @@
         <v>9.494770316129186</v>
       </c>
       <c r="P24" t="n">
-        <v>46.39826918843833</v>
+        <v>46.39826918843832</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.05162010472365119</v>
+        <v>0.05162010472365167</v>
       </c>
       <c r="R24" t="n">
-        <v>1.216803048746291</v>
+        <v>1.216803048746331</v>
       </c>
       <c r="S24" t="n">
-        <v>0.3503097418181765</v>
+        <v>0.350309741818189</v>
       </c>
       <c r="T24" t="n">
-        <v>1.257479978963159</v>
+        <v>1.257479978963182</v>
       </c>
       <c r="U24" t="n">
-        <v>0.2757972510436124</v>
+        <v>0.2757972510436125</v>
       </c>
       <c r="V24" t="n">
-        <v>0.433518270719749</v>
+        <v>0.4335182707197487</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.00299270000000007</v>
+        <v>0.001790399999997305</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2468,10 +2468,10 @@
         <v>359.9656475364695</v>
       </c>
       <c r="F25" t="n">
-        <v>39.55075010425616</v>
+        <v>39.55075010425617</v>
       </c>
       <c r="G25" t="n">
-        <v>92.68456613152537</v>
+        <v>92.68456613152533</v>
       </c>
       <c r="H25" t="n">
         <v>14.28364444604614</v>
@@ -2498,25 +2498,25 @@
         <v>26.82138974827686</v>
       </c>
       <c r="P25" t="n">
-        <v>40.48729779243129</v>
+        <v>40.4872977924313</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.05137626667378838</v>
+        <v>0.05137626667379496</v>
       </c>
       <c r="R25" t="n">
-        <v>1.320219331099284</v>
+        <v>1.320219331099475</v>
       </c>
       <c r="S25" t="n">
-        <v>0.7023846108611534</v>
+        <v>0.7023846108612842</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3651361454990004</v>
+        <v>0.3651361454990406</v>
       </c>
       <c r="U25" t="n">
-        <v>0.2290543068935368</v>
+        <v>0.2290543068935366</v>
       </c>
       <c r="V25" t="n">
-        <v>0.05285952453198609</v>
+        <v>0.05285952453198559</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.002700300000000766</v>
+        <v>0.002336599999999578</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2553,10 +2553,10 @@
         <v>38.90583500869806</v>
       </c>
       <c r="G26" t="n">
-        <v>170.7773463672979</v>
+        <v>170.777346367298</v>
       </c>
       <c r="H26" t="n">
-        <v>9.743414689795097</v>
+        <v>9.743414689795106</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2580,25 +2580,25 @@
         <v>6.89154730752034</v>
       </c>
       <c r="P26" t="n">
-        <v>24.92859032206817</v>
+        <v>24.92859032206815</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.03978419887210202</v>
+        <v>0.03978419887210288</v>
       </c>
       <c r="R26" t="n">
-        <v>0.7333095669326577</v>
+        <v>0.7333095669326434</v>
       </c>
       <c r="S26" t="n">
-        <v>0.1522322067651252</v>
+        <v>0.15223220676513</v>
       </c>
       <c r="T26" t="n">
-        <v>1.011909052082383</v>
+        <v>1.011909052082401</v>
       </c>
       <c r="U26" t="n">
         <v>0.2430925177793465</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4806123440804104</v>
+        <v>0.4806123440804058</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.002031199999999345</v>
+        <v>0.001762100000000544</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2632,13 +2632,13 @@
         <v>0.009221408366807423</v>
       </c>
       <c r="F27" t="n">
-        <v>41.33244072105784</v>
+        <v>41.33244072105781</v>
       </c>
       <c r="G27" t="n">
         <v>155.9731124453689</v>
       </c>
       <c r="H27" t="n">
-        <v>10.28694446309584</v>
+        <v>10.28694446309585</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2659,28 +2659,28 @@
         <v>27.0400161198854</v>
       </c>
       <c r="O27" t="n">
-        <v>12.73798782574422</v>
+        <v>12.73798782574421</v>
       </c>
       <c r="P27" t="n">
-        <v>28.13373700651504</v>
+        <v>28.13373700651501</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.04736042696645151</v>
+        <v>0.04736042696645022</v>
       </c>
       <c r="R27" t="n">
-        <v>0.9203266616760577</v>
+        <v>0.9203266616760303</v>
       </c>
       <c r="S27" t="n">
-        <v>0.2731145369022372</v>
+        <v>0.2731145369022253</v>
       </c>
       <c r="T27" t="n">
-        <v>0.6414277315738154</v>
+        <v>0.6414277315738034</v>
       </c>
       <c r="U27" t="n">
-        <v>0.2670872750431423</v>
+        <v>0.2670872750431422</v>
       </c>
       <c r="V27" t="n">
-        <v>0.1783212389850326</v>
+        <v>0.1783212389850299</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.00194729999999943</v>
+        <v>0.001600899999999683</v>
       </c>
       <c r="Y27" t="n">
         <v>8</v>
@@ -2714,13 +2714,13 @@
         <v>0.03430643799440321</v>
       </c>
       <c r="F28" t="n">
-        <v>40.136158753215</v>
+        <v>40.13615875321499</v>
       </c>
       <c r="G28" t="n">
         <v>58.53476351931342</v>
       </c>
       <c r="H28" t="n">
-        <v>8.777079053358538</v>
+        <v>8.777079053358531</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2744,25 +2744,25 @@
         <v>13.31177237962776</v>
       </c>
       <c r="P28" t="n">
-        <v>44.20527853645837</v>
+        <v>44.20527853645835</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.05067129529134792</v>
+        <v>0.05067129529134608</v>
       </c>
       <c r="R28" t="n">
-        <v>1.18098731746504</v>
+        <v>1.180987317464954</v>
       </c>
       <c r="S28" t="n">
-        <v>0.4232867772909191</v>
+        <v>0.4232867772908842</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9042638466972406</v>
+        <v>0.9042638466971942</v>
       </c>
       <c r="U28" t="n">
-        <v>0.240040255602207</v>
+        <v>0.2400402556022072</v>
       </c>
       <c r="V28" t="n">
-        <v>0.2378699205293653</v>
+        <v>0.237869920529368</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002415599999999074</v>
+        <v>0.001862699999996664</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2796,10 +2796,10 @@
         <v>359.8914005387256</v>
       </c>
       <c r="F29" t="n">
-        <v>40.33314685423274</v>
+        <v>40.33314685423275</v>
       </c>
       <c r="G29" t="n">
-        <v>74.8090866845688</v>
+        <v>74.80908668456884</v>
       </c>
       <c r="H29" t="n">
         <v>13.31095528135848</v>
@@ -2826,25 +2826,25 @@
         <v>21.50388614009914</v>
       </c>
       <c r="P29" t="n">
-        <v>45.0371687687595</v>
+        <v>45.03716876875951</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.05365992810025037</v>
+        <v>0.05365992810025051</v>
       </c>
       <c r="R29" t="n">
-        <v>1.351995331163811</v>
+        <v>1.351995331163792</v>
       </c>
       <c r="S29" t="n">
-        <v>0.6576294489023091</v>
+        <v>0.657629448902303</v>
       </c>
       <c r="T29" t="n">
-        <v>0.5808190385699793</v>
+        <v>0.5808190385699775</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2587772268292836</v>
+        <v>0.2587772268292838</v>
       </c>
       <c r="V29" t="n">
-        <v>0.2028796628581094</v>
+        <v>0.2028796628581093</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002431100000000797</v>
+        <v>0.002528900000001499</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2878,10 +2878,10 @@
         <v>359.9912397275476</v>
       </c>
       <c r="F30" t="n">
-        <v>39.89227699189215</v>
+        <v>39.89227699189213</v>
       </c>
       <c r="G30" t="n">
-        <v>130.3961912605111</v>
+        <v>130.3961912605112</v>
       </c>
       <c r="H30" t="n">
         <v>9.658590583956295</v>
@@ -2908,25 +2908,25 @@
         <v>18.55576888219278</v>
       </c>
       <c r="P30" t="n">
-        <v>31.39677247043196</v>
+        <v>31.39677247043193</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.04839189972966535</v>
+        <v>0.04839189972966437</v>
       </c>
       <c r="R30" t="n">
         <v>1.048215940851666</v>
       </c>
       <c r="S30" t="n">
-        <v>0.391925563305074</v>
+        <v>0.3919255633050652</v>
       </c>
       <c r="T30" t="n">
-        <v>0.4438089035439545</v>
+        <v>0.4438089035439465</v>
       </c>
       <c r="U30" t="n">
         <v>0.2395985946584258</v>
       </c>
       <c r="V30" t="n">
-        <v>0.04817225052179814</v>
+        <v>0.04817225052179449</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.004058599999998691</v>
+        <v>0.001913300000005336</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -2966,7 +2966,7 @@
         <v>147.6870133164066</v>
       </c>
       <c r="H31" t="n">
-        <v>5.49713182266149</v>
+        <v>5.497131822661498</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2990,25 +2990,25 @@
         <v>8.21451942442836</v>
       </c>
       <c r="P31" t="n">
-        <v>32.62785490389893</v>
+        <v>32.62785490389891</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.04559575752176948</v>
+        <v>0.04559575752176855</v>
       </c>
       <c r="R31" t="n">
-        <v>0.9032923029437693</v>
+        <v>0.9032923029437689</v>
       </c>
       <c r="S31" t="n">
-        <v>0.2214059263062633</v>
+        <v>0.221405926306258</v>
       </c>
       <c r="T31" t="n">
-        <v>1.062241411631168</v>
+        <v>1.062241411631141</v>
       </c>
       <c r="U31" t="n">
-        <v>0.2513995117802061</v>
+        <v>0.2513995117802059</v>
       </c>
       <c r="V31" t="n">
-        <v>0.6671914051857271</v>
+        <v>0.6671914051857217</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.00197930000000035</v>
+        <v>0.00161719999999832</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3045,10 +3045,10 @@
         <v>38.73919856370642</v>
       </c>
       <c r="G32" t="n">
-        <v>117.841400698808</v>
+        <v>117.8414006988079</v>
       </c>
       <c r="H32" t="n">
-        <v>7.265642514044254</v>
+        <v>7.265642514044253</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3075,22 +3075,22 @@
         <v>33.2674713401491</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.04668473382218655</v>
+        <v>0.04668473382218384</v>
       </c>
       <c r="R32" t="n">
-        <v>0.9702235500424754</v>
+        <v>0.9702235500423446</v>
       </c>
       <c r="S32" t="n">
-        <v>0.3490603729329826</v>
+        <v>0.3490603729329245</v>
       </c>
       <c r="T32" t="n">
-        <v>0.5799495463134717</v>
+        <v>0.5799495463134405</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2483685023022942</v>
+        <v>0.2483685023022944</v>
       </c>
       <c r="V32" t="n">
-        <v>0.2340996863148265</v>
+        <v>0.2340996863148254</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002166299999998955</v>
+        <v>0.002630500000002201</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3127,7 +3127,7 @@
         <v>39.06625655835617</v>
       </c>
       <c r="G33" t="n">
-        <v>50.8324911965015</v>
+        <v>50.83249119650151</v>
       </c>
       <c r="H33" t="n">
         <v>14.11188124116146</v>
@@ -3157,22 +3157,22 @@
         <v>49.28344652904461</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.05098073990191423</v>
+        <v>0.05098073990191008</v>
       </c>
       <c r="R33" t="n">
-        <v>1.282796015034704</v>
+        <v>1.282796015034406</v>
       </c>
       <c r="S33" t="n">
-        <v>0.5761020223252638</v>
+        <v>0.5761020223251121</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8551742034443768</v>
+        <v>0.8551742034442272</v>
       </c>
       <c r="U33" t="n">
-        <v>0.2563359776082534</v>
+        <v>0.2563359776082533</v>
       </c>
       <c r="V33" t="n">
-        <v>0.1475966511333334</v>
+        <v>0.1475966511333337</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002487699999999649</v>
+        <v>0.002060299999996573</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3206,13 +3206,13 @@
         <v>359.9254126787147</v>
       </c>
       <c r="F34" t="n">
-        <v>39.25181589751012</v>
+        <v>39.25181589751011</v>
       </c>
       <c r="G34" t="n">
         <v>151.8544860539117</v>
       </c>
       <c r="H34" t="n">
-        <v>6.874921953040896</v>
+        <v>6.874921953040894</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3239,22 +3239,22 @@
         <v>29.78557527901858</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.0444230330430733</v>
+        <v>0.04442303304307466</v>
       </c>
       <c r="R34" t="n">
-        <v>0.8226486572393705</v>
+        <v>0.8226486572393718</v>
       </c>
       <c r="S34" t="n">
-        <v>0.2240865627429704</v>
+        <v>0.2240865627429814</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8526471984677517</v>
+        <v>0.8526471984677765</v>
       </c>
       <c r="U34" t="n">
-        <v>0.2525857233965303</v>
+        <v>0.2525857233965305</v>
       </c>
       <c r="V34" t="n">
-        <v>0.2818622887488346</v>
+        <v>0.2818622887488355</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.001969400000000121</v>
+        <v>0.001558299999999235</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3285,16 +3285,16 @@
         <v>8.399705052609546</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1485836468463626</v>
+        <v>0.1485836468463499</v>
       </c>
       <c r="F35" t="n">
         <v>39.52856079294515</v>
       </c>
       <c r="G35" t="n">
-        <v>55.91585693640844</v>
+        <v>55.91585693640837</v>
       </c>
       <c r="H35" t="n">
-        <v>6.403088033826402</v>
+        <v>6.403088033826412</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3318,25 +3318,25 @@
         <v>10.49651245304672</v>
       </c>
       <c r="P35" t="n">
-        <v>41.91957154414307</v>
+        <v>41.9195715441431</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.04837586798981422</v>
+        <v>0.04837586798981428</v>
       </c>
       <c r="R35" t="n">
-        <v>1.067297242412615</v>
+        <v>1.067297242412601</v>
       </c>
       <c r="S35" t="n">
-        <v>0.3274731601367541</v>
+        <v>0.3274731601367468</v>
       </c>
       <c r="T35" t="n">
-        <v>1.052196371903829</v>
+        <v>1.052196371903822</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2399987041575291</v>
+        <v>0.2399987041575292</v>
       </c>
       <c r="V35" t="n">
-        <v>1.001923588941351</v>
+        <v>1.001923588941345</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002119000000000426</v>
+        <v>0.001628300000000138</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3370,13 +3370,13 @@
         <v>359.9771499371685</v>
       </c>
       <c r="F36" t="n">
-        <v>40.63830194019996</v>
+        <v>40.63830194019995</v>
       </c>
       <c r="G36" t="n">
-        <v>7.821812263598074</v>
+        <v>7.821812263598061</v>
       </c>
       <c r="H36" t="n">
-        <v>11.34985641717678</v>
+        <v>11.34985641717679</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3403,22 +3403,22 @@
         <v>51.60278008738246</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.04576434031271317</v>
+        <v>0.04576434031271365</v>
       </c>
       <c r="R36" t="n">
-        <v>1.644545581267334</v>
+        <v>1.644545581267359</v>
       </c>
       <c r="S36" t="n">
-        <v>0.1910126882928794</v>
+        <v>0.1910126882928816</v>
       </c>
       <c r="T36" t="n">
-        <v>2.683735078323071</v>
+        <v>2.683735078323112</v>
       </c>
       <c r="U36" t="n">
-        <v>0.2388319370223407</v>
+        <v>0.2388319370223408</v>
       </c>
       <c r="V36" t="n">
-        <v>0.267142232165578</v>
+        <v>0.2671422321655762</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001751600000000408</v>
+        <v>0.001498000000005106</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3455,10 +3455,10 @@
         <v>40.33442155798589</v>
       </c>
       <c r="G37" t="n">
-        <v>84.48101576072958</v>
+        <v>84.4810157607296</v>
       </c>
       <c r="H37" t="n">
-        <v>6.78494086489686</v>
+        <v>6.784940864896857</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3482,25 +3482,25 @@
         <v>13.5122248528886</v>
       </c>
       <c r="P37" t="n">
-        <v>39.59715295039444</v>
+        <v>39.59715295039443</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.05010049485932051</v>
+        <v>0.05010049485931736</v>
       </c>
       <c r="R37" t="n">
-        <v>1.11081289181601</v>
+        <v>1.110812891815881</v>
       </c>
       <c r="S37" t="n">
-        <v>0.3836515284146629</v>
+        <v>0.3836515284146038</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7911205806629839</v>
+        <v>0.7911205806629247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.2609298481732575</v>
+        <v>0.2609298481732577</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1199489433641079</v>
+        <v>0.1199489433641073</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.003641299999999958</v>
+        <v>0.001814199999998323</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3531,16 +3531,16 @@
         <v>10.21937054844256</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04685522649762047</v>
+        <v>0.04685522649763318</v>
       </c>
       <c r="F38" t="n">
-        <v>39.18507504239544</v>
+        <v>39.18507504239543</v>
       </c>
       <c r="G38" t="n">
         <v>132.9863861103177</v>
       </c>
       <c r="H38" t="n">
-        <v>10.07980620856549</v>
+        <v>10.07980620856548</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3564,25 +3564,25 @@
         <v>19.5387672540458</v>
       </c>
       <c r="P38" t="n">
-        <v>30.05204242708059</v>
+        <v>30.05204242708058</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.04699336113546593</v>
+        <v>0.04699336113546637</v>
       </c>
       <c r="R38" t="n">
-        <v>1.01155902867994</v>
+        <v>1.011559028679955</v>
       </c>
       <c r="S38" t="n">
-        <v>0.386062017642708</v>
+        <v>0.3860620176427134</v>
       </c>
       <c r="T38" t="n">
         <v>0.4012023733632432</v>
       </c>
       <c r="U38" t="n">
-        <v>0.276492696455944</v>
+        <v>0.2764926964559442</v>
       </c>
       <c r="V38" t="n">
-        <v>0.1385341921923765</v>
+        <v>0.1385341921923803</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.002259099999999847</v>
+        <v>0.001782200000000955</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -3616,13 +3616,13 @@
         <v>359.9115398539535</v>
       </c>
       <c r="F39" t="n">
-        <v>40.35968953506808</v>
+        <v>40.35968953506807</v>
       </c>
       <c r="G39" t="n">
         <v>164.5938129567999</v>
       </c>
       <c r="H39" t="n">
-        <v>6.848285883640632</v>
+        <v>6.848285883640623</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3646,25 +3646,25 @@
         <v>6.298280244229993</v>
       </c>
       <c r="P39" t="n">
-        <v>30.00171641978561</v>
+        <v>30.00171641978562</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.04252560096641402</v>
+        <v>0.04252560096641427</v>
       </c>
       <c r="R39" t="n">
-        <v>0.8779661945129267</v>
+        <v>0.8779661945129209</v>
       </c>
       <c r="S39" t="n">
-        <v>0.1719032615289312</v>
+        <v>0.1719032615289307</v>
       </c>
       <c r="T39" t="n">
-        <v>1.231959282547826</v>
+        <v>1.231959282547831</v>
       </c>
       <c r="U39" t="n">
-        <v>0.2412288291038998</v>
+        <v>0.2412288291038996</v>
       </c>
       <c r="V39" t="n">
-        <v>0.8226165459424468</v>
+        <v>0.8226165459424499</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.001949400000000878</v>
+        <v>0.001785200000000486</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3698,13 +3698,13 @@
         <v>359.8908139012667</v>
       </c>
       <c r="F40" t="n">
-        <v>40.57920230148672</v>
+        <v>40.57920230148673</v>
       </c>
       <c r="G40" t="n">
-        <v>68.81775847602465</v>
+        <v>68.81775847602464</v>
       </c>
       <c r="H40" t="n">
-        <v>13.74812321335498</v>
+        <v>13.74812321335499</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3728,25 +3728,25 @@
         <v>20.5614422717745</v>
       </c>
       <c r="P40" t="n">
-        <v>46.91249868725286</v>
+        <v>46.91249868725288</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.05427015271753461</v>
+        <v>0.05427015271753837</v>
       </c>
       <c r="R40" t="n">
-        <v>1.381050580417379</v>
+        <v>1.38105058041768</v>
       </c>
       <c r="S40" t="n">
-        <v>0.6651167927556263</v>
+        <v>0.6651167927557664</v>
       </c>
       <c r="T40" t="n">
-        <v>0.651190807244995</v>
+        <v>0.6511908072450636</v>
       </c>
       <c r="U40" t="n">
-        <v>0.2657075057393507</v>
+        <v>0.2657075057393508</v>
       </c>
       <c r="V40" t="n">
-        <v>0.1356477362409715</v>
+        <v>0.1356477362409739</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002439100000000138</v>
+        <v>0.001941299999998591</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3780,13 +3780,13 @@
         <v>0.0018997587865359</v>
       </c>
       <c r="F41" t="n">
-        <v>38.93217292018354</v>
+        <v>38.93217292018351</v>
       </c>
       <c r="G41" t="n">
         <v>98.23353109346428</v>
       </c>
       <c r="H41" t="n">
-        <v>12.17746079151809</v>
+        <v>12.17746079151807</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3807,28 +3807,28 @@
         <v>38.67756631959967</v>
       </c>
       <c r="O41" t="n">
-        <v>24.55224577681545</v>
+        <v>24.55224577681544</v>
       </c>
       <c r="P41" t="n">
-        <v>37.62507193743879</v>
+        <v>37.62507193743877</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.04947600290356894</v>
+        <v>0.04947600290356534</v>
       </c>
       <c r="R41" t="n">
-        <v>1.205307092580851</v>
+        <v>1.205307092580705</v>
       </c>
       <c r="S41" t="n">
-        <v>0.5886868680711517</v>
+        <v>0.5886868680710711</v>
       </c>
       <c r="T41" t="n">
-        <v>0.3760486743591947</v>
+        <v>0.3760486743591742</v>
       </c>
       <c r="U41" t="n">
         <v>0.2610846319889309</v>
       </c>
       <c r="V41" t="n">
-        <v>0.1398388341692701</v>
+        <v>0.1398388341692735</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002394400000000019</v>
+        <v>0.002061099999998817</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3862,13 +3862,13 @@
         <v>359.9794969366444</v>
       </c>
       <c r="F42" t="n">
-        <v>40.44784193663668</v>
+        <v>40.4478419366367</v>
       </c>
       <c r="G42" t="n">
-        <v>57.15746418173214</v>
+        <v>57.15746418173204</v>
       </c>
       <c r="H42" t="n">
-        <v>4.457736257388191</v>
+        <v>4.457736257388202</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3892,25 +3892,25 @@
         <v>7.89744158481046</v>
       </c>
       <c r="P42" t="n">
-        <v>41.12258806474185</v>
+        <v>41.12258806474188</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.04808320070234631</v>
+        <v>0.04808320070234533</v>
       </c>
       <c r="R42" t="n">
-        <v>1.066564316884983</v>
+        <v>1.066564316884992</v>
       </c>
       <c r="S42" t="n">
-        <v>0.2660663311584594</v>
+        <v>0.266066331158455</v>
       </c>
       <c r="T42" t="n">
-        <v>1.292714613869532</v>
+        <v>1.292714613869501</v>
       </c>
       <c r="U42" t="n">
-        <v>0.2422280591195301</v>
+        <v>0.2422280591195302</v>
       </c>
       <c r="V42" t="n">
-        <v>1.045682866374522</v>
+        <v>1.045682866374534</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002465000000000828</v>
+        <v>0.002227300000001264</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -3944,13 +3944,13 @@
         <v>0.1212027859536354</v>
       </c>
       <c r="F43" t="n">
-        <v>39.9433520709085</v>
+        <v>39.94335207090851</v>
       </c>
       <c r="G43" t="n">
-        <v>95.10572347327752</v>
+        <v>95.10572347327742</v>
       </c>
       <c r="H43" t="n">
-        <v>2.147078240123224</v>
+        <v>2.147078240123227</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3971,28 +3971,28 @@
         <v>40.60700288008367</v>
       </c>
       <c r="O43" t="n">
-        <v>5.880982720362627</v>
+        <v>5.880982720362639</v>
       </c>
       <c r="P43" t="n">
-        <v>37.29389045348676</v>
+        <v>37.29389045348679</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.04508965659974642</v>
+        <v>0.04508965659974689</v>
       </c>
       <c r="R43" t="n">
-        <v>1.033636434230796</v>
+        <v>1.033636434230801</v>
       </c>
       <c r="S43" t="n">
-        <v>0.1968382124229695</v>
+        <v>0.1968382124229743</v>
       </c>
       <c r="T43" t="n">
-        <v>1.509391316977864</v>
+        <v>1.509391316977894</v>
       </c>
       <c r="U43" t="n">
-        <v>0.2505736410182209</v>
+        <v>0.2505736410182208</v>
       </c>
       <c r="V43" t="n">
-        <v>2.385644426451716</v>
+        <v>2.38564442645171</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.001965800000000684</v>
+        <v>0.001607399999997483</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4026,13 +4026,13 @@
         <v>0.1038452881480321</v>
       </c>
       <c r="F44" t="n">
-        <v>39.72006003084148</v>
+        <v>39.7200600308415</v>
       </c>
       <c r="G44" t="n">
-        <v>70.48722690579238</v>
+        <v>70.48722690579234</v>
       </c>
       <c r="H44" t="n">
-        <v>13.57971452536698</v>
+        <v>13.57971452536699</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4053,28 +4053,28 @@
         <v>47.24055450089488</v>
       </c>
       <c r="O44" t="n">
-        <v>21.3162994968173</v>
+        <v>21.31629949681732</v>
       </c>
       <c r="P44" t="n">
-        <v>45.67111814818054</v>
+        <v>45.67111814818058</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.05101104469813542</v>
+        <v>0.05101104469813615</v>
       </c>
       <c r="R44" t="n">
-        <v>1.326764706643001</v>
+        <v>1.326764706643126</v>
       </c>
       <c r="S44" t="n">
-        <v>0.6534753118674046</v>
+        <v>0.6534753118674633</v>
       </c>
       <c r="T44" t="n">
-        <v>0.6106473213655186</v>
+        <v>0.6106473213655436</v>
       </c>
       <c r="U44" t="n">
         <v>0.2343806488999038</v>
       </c>
       <c r="V44" t="n">
-        <v>0.2881991755551047</v>
+        <v>0.2881991755551003</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002952500000001024</v>
+        <v>0.00197769999999764</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4111,10 +4111,10 @@
         <v>39.02791539866777</v>
       </c>
       <c r="G45" t="n">
-        <v>18.59818164970452</v>
+        <v>18.59818164970454</v>
       </c>
       <c r="H45" t="n">
-        <v>11.50046674457425</v>
+        <v>11.50046674457424</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4138,25 +4138,25 @@
         <v>6.393067140464757</v>
       </c>
       <c r="P45" t="n">
-        <v>49.80111167090938</v>
+        <v>49.80111167090936</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.04798366486409399</v>
+        <v>0.04798366486409378</v>
       </c>
       <c r="R45" t="n">
-        <v>1.210803365142852</v>
+        <v>1.210803365142856</v>
       </c>
       <c r="S45" t="n">
-        <v>0.2715538033959949</v>
+        <v>0.2715538033959962</v>
       </c>
       <c r="T45" t="n">
-        <v>1.714747839954294</v>
+        <v>1.714747839954287</v>
       </c>
       <c r="U45" t="n">
-        <v>0.2444314287199152</v>
+        <v>0.2444314287199151</v>
       </c>
       <c r="V45" t="n">
-        <v>0.3771432214204651</v>
+        <v>0.3771432214204616</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.001903799999999123</v>
+        <v>0.001596100000000433</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4196,7 +4196,7 @@
         <v>148.2050048899731</v>
       </c>
       <c r="H46" t="n">
-        <v>4.426859922866264</v>
+        <v>4.426859922866255</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4220,25 +4220,25 @@
         <v>6.490586711442341</v>
       </c>
       <c r="P46" t="n">
-        <v>35.21483230324137</v>
+        <v>35.21483230324138</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.04665228991894739</v>
+        <v>0.04665228991894817</v>
       </c>
       <c r="R46" t="n">
-        <v>1.021111540575513</v>
+        <v>1.021111540575521</v>
       </c>
       <c r="S46" t="n">
-        <v>0.2079455285025621</v>
+        <v>0.2079455285025704</v>
       </c>
       <c r="T46" t="n">
-        <v>1.384772537240792</v>
+        <v>1.384772537240829</v>
       </c>
       <c r="U46" t="n">
         <v>0.2493980454206794</v>
       </c>
       <c r="V46" t="n">
-        <v>0.2736955506813628</v>
+        <v>0.2736955506813586</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.001942800000000133</v>
+        <v>0.001670000000004279</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4272,13 +4272,13 @@
         <v>0.0489818886927278</v>
       </c>
       <c r="F47" t="n">
-        <v>40.64865500111637</v>
+        <v>40.64865500111638</v>
       </c>
       <c r="G47" t="n">
         <v>179.1294118044711</v>
       </c>
       <c r="H47" t="n">
-        <v>11.8692610519975</v>
+        <v>11.86926105199751</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4305,22 +4305,22 @@
         <v>23.83324489122628</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.03631638227851063</v>
+        <v>0.03631638227851052</v>
       </c>
       <c r="R47" t="n">
-        <v>1.045018806541987</v>
+        <v>1.045018806541971</v>
       </c>
       <c r="S47" t="n">
-        <v>0.09922261556105531</v>
+        <v>0.09922261556105513</v>
       </c>
       <c r="T47" t="n">
-        <v>1.553211044984068</v>
+        <v>1.553211044984047</v>
       </c>
       <c r="U47" t="n">
         <v>0.2354172756550055</v>
       </c>
       <c r="V47" t="n">
-        <v>0.7667318840766133</v>
+        <v>0.766731884076616</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.001769200000000026</v>
+        <v>0.001470300000001146</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
@@ -4354,13 +4354,13 @@
         <v>0.0271638062508176</v>
       </c>
       <c r="F48" t="n">
-        <v>40.13282409797502</v>
+        <v>40.132824097975</v>
       </c>
       <c r="G48" t="n">
-        <v>142.4741677921297</v>
+        <v>142.4741677921298</v>
       </c>
       <c r="H48" t="n">
-        <v>10.82953522356657</v>
+        <v>10.82953522356656</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4384,25 +4384,25 @@
         <v>18.50170062958594</v>
       </c>
       <c r="P48" t="n">
-        <v>28.69307067210882</v>
+        <v>28.6930706721088</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.04765177184551395</v>
+        <v>0.04765177184552018</v>
       </c>
       <c r="R48" t="n">
-        <v>1.012990750205793</v>
+        <v>1.012990750205985</v>
       </c>
       <c r="S48" t="n">
-        <v>0.3618640343901268</v>
+        <v>0.3618640343902155</v>
       </c>
       <c r="T48" t="n">
-        <v>0.4146645769969349</v>
+        <v>0.4146645769969527</v>
       </c>
       <c r="U48" t="n">
         <v>0.2576197115842244</v>
       </c>
       <c r="V48" t="n">
-        <v>0.108435967000705</v>
+        <v>0.1084359670007068</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002374200000000215</v>
+        <v>0.001790200000002073</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4436,13 +4436,13 @@
         <v>0.01406783604805822</v>
       </c>
       <c r="F49" t="n">
-        <v>40.63873640349775</v>
+        <v>40.63873640349774</v>
       </c>
       <c r="G49" t="n">
         <v>21.16572838140452</v>
       </c>
       <c r="H49" t="n">
-        <v>14.15908150613136</v>
+        <v>14.15908150613137</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4469,22 +4469,22 @@
         <v>54.36151104696949</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.05190429030831577</v>
+        <v>0.05190429030831695</v>
       </c>
       <c r="R49" t="n">
-        <v>1.328404003180905</v>
+        <v>1.328404003180881</v>
       </c>
       <c r="S49" t="n">
-        <v>0.3506368058751372</v>
+        <v>0.3506368058751406</v>
       </c>
       <c r="T49" t="n">
-        <v>1.67591920113244</v>
+        <v>1.675919201132493</v>
       </c>
       <c r="U49" t="n">
-        <v>0.2489463453474903</v>
+        <v>0.2489463453474904</v>
       </c>
       <c r="V49" t="n">
-        <v>0.1117198037802302</v>
+        <v>0.1117198037802287</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.003692400000000262</v>
+        <v>0.001757000000004894</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4551,22 +4551,22 @@
         <v>53.4907879250151</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.04110803366027885</v>
+        <v>0.04110803366027891</v>
       </c>
       <c r="R50" t="n">
         <v>2.037122036212426</v>
       </c>
       <c r="S50" t="n">
-        <v>0.1505959264393807</v>
+        <v>0.1505959264393804</v>
       </c>
       <c r="T50" t="n">
-        <v>3.315600118156462</v>
+        <v>3.315600118156475</v>
       </c>
       <c r="U50" t="n">
         <v>0.2546969973963462</v>
       </c>
       <c r="V50" t="n">
-        <v>0.2318244955316825</v>
+        <v>0.2318244955316822</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001713800000000987</v>
+        <v>0.001420099999997149</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4603,10 +4603,10 @@
         <v>38.79597157701952</v>
       </c>
       <c r="G51" t="n">
-        <v>50.80418476445632</v>
+        <v>50.80418476445617</v>
       </c>
       <c r="H51" t="n">
-        <v>6.043764133622442</v>
+        <v>6.04376413362246</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4630,25 +4630,25 @@
         <v>9.443978832929744</v>
       </c>
       <c r="P51" t="n">
-        <v>41.32307237760828</v>
+        <v>41.32307237760831</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.04734444493307258</v>
+        <v>0.04734444493307131</v>
       </c>
       <c r="R51" t="n">
-        <v>1.019909237448378</v>
+        <v>1.019909237448379</v>
       </c>
       <c r="S51" t="n">
-        <v>0.2951839835090553</v>
+        <v>0.2951839835090444</v>
       </c>
       <c r="T51" t="n">
-        <v>1.109051380269972</v>
+        <v>1.109051380269933</v>
       </c>
       <c r="U51" t="n">
         <v>0.2275135189120296</v>
       </c>
       <c r="V51" t="n">
-        <v>0.1698798646540453</v>
+        <v>0.1698798646540558</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.00172000000000061</v>
+        <v>0.001419899999994811</v>
       </c>
       <c r="Y51" t="n">
         <v>7</v>
@@ -4682,13 +4682,13 @@
         <v>359.9887642588278</v>
       </c>
       <c r="F52" t="n">
-        <v>39.86752333873004</v>
+        <v>39.86752333873005</v>
       </c>
       <c r="G52" t="n">
-        <v>84.88825533621255</v>
+        <v>84.88825533621259</v>
       </c>
       <c r="H52" t="n">
-        <v>5.854072644947045</v>
+        <v>5.854072644947047</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4715,22 +4715,22 @@
         <v>38.74598042590458</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.048833447681388</v>
+        <v>0.04883344768138431</v>
       </c>
       <c r="R52" t="n">
-        <v>1.050006633851876</v>
+        <v>1.050006633851795</v>
       </c>
       <c r="S52" t="n">
-        <v>0.342031309770156</v>
+        <v>0.3420313097701092</v>
       </c>
       <c r="T52" t="n">
-        <v>0.8545662697411436</v>
+        <v>0.854566269741069</v>
       </c>
       <c r="U52" t="n">
-        <v>0.24509752897772</v>
+        <v>0.2450975289777199</v>
       </c>
       <c r="V52" t="n">
-        <v>0.1804595373445876</v>
+        <v>0.1804595373445869</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002028299999999206</v>
+        <v>0.001824499999997897</v>
       </c>
       <c r="Y52" t="n">
         <v>8</v>
@@ -4767,10 +4767,10 @@
         <v>38.94369375647565</v>
       </c>
       <c r="G53" t="n">
-        <v>94.4811393298898</v>
+        <v>94.48113932988954</v>
       </c>
       <c r="H53" t="n">
-        <v>3.072545896776075</v>
+        <v>3.072545896776076</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4794,25 +4794,25 @@
         <v>7.655455955078333</v>
       </c>
       <c r="P53" t="n">
-        <v>36.36336243136176</v>
+        <v>36.36336243136179</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.04488120476468563</v>
+        <v>0.04488120476468743</v>
       </c>
       <c r="R53" t="n">
-        <v>0.9329219394622862</v>
+        <v>0.932921939462279</v>
       </c>
       <c r="S53" t="n">
-        <v>0.2251539151660837</v>
+        <v>0.2251539151660876</v>
       </c>
       <c r="T53" t="n">
-        <v>1.188021426624369</v>
+        <v>1.188021426624432</v>
       </c>
       <c r="U53" t="n">
-        <v>0.2432981392440613</v>
+        <v>0.2432981392440614</v>
       </c>
       <c r="V53" t="n">
-        <v>1.071426821094185</v>
+        <v>1.071426821094192</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.001982599999999834</v>
+        <v>0.001727299999998877</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4846,13 +4846,13 @@
         <v>359.9004710072776</v>
       </c>
       <c r="F54" t="n">
-        <v>41.22836251282031</v>
+        <v>41.22836251282033</v>
       </c>
       <c r="G54" t="n">
-        <v>107.7175121104324</v>
+        <v>107.7175121104325</v>
       </c>
       <c r="H54" t="n">
-        <v>2.267955354452131</v>
+        <v>2.267955354452134</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4876,25 +4876,25 @@
         <v>5.579828946548903</v>
       </c>
       <c r="P54" t="n">
-        <v>37.96358848938846</v>
+        <v>37.96358848938848</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.04534451239766148</v>
+        <v>0.04534451239766069</v>
       </c>
       <c r="R54" t="n">
-        <v>1.084424252232906</v>
+        <v>1.084424252232897</v>
       </c>
       <c r="S54" t="n">
-        <v>0.1980687950218722</v>
+        <v>0.1980687950218634</v>
       </c>
       <c r="T54" t="n">
-        <v>1.575786093218698</v>
+        <v>1.575786093218671</v>
       </c>
       <c r="U54" t="n">
-        <v>0.230765832959231</v>
+        <v>0.2307658329592312</v>
       </c>
       <c r="V54" t="n">
-        <v>2.007911662214763</v>
+        <v>2.007911662214759</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.003731500000000665</v>
+        <v>0.001624199999994858</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4931,10 +4931,10 @@
         <v>39.88330219927252</v>
       </c>
       <c r="G55" t="n">
-        <v>150.7134740921581</v>
+        <v>150.7134740921582</v>
       </c>
       <c r="H55" t="n">
-        <v>9.445749022136846</v>
+        <v>9.445749022136853</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4958,25 +4958,25 @@
         <v>13.71131023146557</v>
       </c>
       <c r="P55" t="n">
-        <v>28.18398060063392</v>
+        <v>28.18398060063391</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.04647580187889878</v>
+        <v>0.04647580187889489</v>
       </c>
       <c r="R55" t="n">
-        <v>0.8895250546308743</v>
+        <v>0.8895250546307559</v>
       </c>
       <c r="S55" t="n">
-        <v>0.2802869741386864</v>
+        <v>0.2802869741386343</v>
       </c>
       <c r="T55" t="n">
-        <v>0.5830178632266304</v>
+        <v>0.5830178632266101</v>
       </c>
       <c r="U55" t="n">
-        <v>0.2804474351533265</v>
+        <v>0.2804474351533264</v>
       </c>
       <c r="V55" t="n">
-        <v>0.1444241218033249</v>
+        <v>0.1444241218033218</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.001957100000000267</v>
+        <v>0.001650600000004943</v>
       </c>
       <c r="Y55" t="n">
         <v>8</v>
@@ -5013,10 +5013,10 @@
         <v>38.64780301969257</v>
       </c>
       <c r="G56" t="n">
-        <v>82.60437231760608</v>
+        <v>82.60437231760601</v>
       </c>
       <c r="H56" t="n">
-        <v>6.595689122948142</v>
+        <v>6.595689122948146</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -5040,25 +5040,25 @@
         <v>13.77701486333022</v>
       </c>
       <c r="P56" t="n">
-        <v>38.14769468256515</v>
+        <v>38.14769468256517</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.04733368113465262</v>
+        <v>0.04733368113465108</v>
       </c>
       <c r="R56" t="n">
-        <v>1.018544780585997</v>
+        <v>1.018544780585946</v>
       </c>
       <c r="S56" t="n">
-        <v>0.3619508067864666</v>
+        <v>0.3619508067864393</v>
       </c>
       <c r="T56" t="n">
-        <v>0.7502799597794172</v>
+        <v>0.7502799597793884</v>
       </c>
       <c r="U56" t="n">
-        <v>0.2459667860202988</v>
+        <v>0.2459667860202987</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5473339675805083</v>
+        <v>0.5473339675805038</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002212400000001224</v>
+        <v>0.002006599999994307</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5092,13 +5092,13 @@
         <v>359.9513767829545</v>
       </c>
       <c r="F57" t="n">
-        <v>40.50646265200088</v>
+        <v>40.50646265200087</v>
       </c>
       <c r="G57" t="n">
-        <v>16.48454392449436</v>
+        <v>16.48454392449434</v>
       </c>
       <c r="H57" t="n">
-        <v>15.85897898283141</v>
+        <v>15.85897898283144</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -5122,25 +5122,25 @@
         <v>6.641014883908609</v>
       </c>
       <c r="P57" t="n">
-        <v>56.51784694326319</v>
+        <v>56.51784694326321</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.05156030678146617</v>
+        <v>0.05156030678146687</v>
       </c>
       <c r="R57" t="n">
-        <v>1.381073840916175</v>
+        <v>1.381073840916156</v>
       </c>
       <c r="S57" t="n">
-        <v>0.3270846268167512</v>
+        <v>0.3270846268167557</v>
       </c>
       <c r="T57" t="n">
-        <v>1.903695369186875</v>
+        <v>1.903695369186914</v>
       </c>
       <c r="U57" t="n">
-        <v>0.2442328559958594</v>
+        <v>0.2442328559958593</v>
       </c>
       <c r="V57" t="n">
-        <v>0.2887384126405218</v>
+        <v>0.2887384126405277</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.001936900000000463</v>
+        <v>0.001468600000002596</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5174,13 +5174,13 @@
         <v>359.9572416343686</v>
       </c>
       <c r="F58" t="n">
-        <v>40.26939177963614</v>
+        <v>40.26939177963613</v>
       </c>
       <c r="G58" t="n">
-        <v>175.7999069180823</v>
+        <v>175.7999069180824</v>
       </c>
       <c r="H58" t="n">
-        <v>6.33176223932744</v>
+        <v>6.331762239327448</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5204,25 +5204,25 @@
         <v>3.22927602897254</v>
       </c>
       <c r="P58" t="n">
-        <v>30.12314141734933</v>
+        <v>30.12314141734931</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.0374511971245503</v>
+        <v>0.03745119712455099</v>
       </c>
       <c r="R58" t="n">
-        <v>1.191881243159244</v>
+        <v>1.191881243159268</v>
       </c>
       <c r="S58" t="n">
-        <v>0.1146672665129404</v>
+        <v>0.1146672665129421</v>
       </c>
       <c r="T58" t="n">
-        <v>1.826189164127376</v>
+        <v>1.826189164127428</v>
       </c>
       <c r="U58" t="n">
-        <v>0.2399630443618706</v>
+        <v>0.2399630443618704</v>
       </c>
       <c r="V58" t="n">
-        <v>0.3590053412284967</v>
+        <v>0.3590053412284914</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.00178770000000128</v>
+        <v>0.001403699999997343</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5256,13 +5256,13 @@
         <v>359.956327924526</v>
       </c>
       <c r="F59" t="n">
-        <v>38.08995857137165</v>
+        <v>38.08995857137167</v>
       </c>
       <c r="G59" t="n">
-        <v>10.56277590770748</v>
+        <v>10.56277590770751</v>
       </c>
       <c r="H59" t="n">
-        <v>9.393454711579723</v>
+        <v>9.393454711579688</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -5286,25 +5286,25 @@
         <v>3.941607618752057</v>
       </c>
       <c r="P59" t="n">
-        <v>46.66510077072833</v>
+        <v>46.66510077072831</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.042916093782381</v>
+        <v>0.04291609378238073</v>
       </c>
       <c r="R59" t="n">
-        <v>1.338221890787984</v>
+        <v>1.338221890787958</v>
       </c>
       <c r="S59" t="n">
-        <v>0.1833498078889121</v>
+        <v>0.1833498078889153</v>
       </c>
       <c r="T59" t="n">
-        <v>2.160396500917487</v>
+        <v>2.160396500917466</v>
       </c>
       <c r="U59" t="n">
-        <v>0.2726944703084197</v>
+        <v>0.2726944703084199</v>
       </c>
       <c r="V59" t="n">
-        <v>1.800414280090552</v>
+        <v>1.800414280090535</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.002810600000000107</v>
+        <v>0.002120000000005007</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5341,10 +5341,10 @@
         <v>37.94205371802163</v>
       </c>
       <c r="G60" t="n">
-        <v>60.49438281156523</v>
+        <v>60.49438281156522</v>
       </c>
       <c r="H60" t="n">
-        <v>8.448599219913804</v>
+        <v>8.448599219913808</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5365,28 +5365,28 @@
         <v>42.81185243735961</v>
       </c>
       <c r="O60" t="n">
-        <v>13.89831209197423</v>
+        <v>13.89831209197424</v>
       </c>
       <c r="P60" t="n">
         <v>41.53489343999713</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.0480805571792047</v>
+        <v>0.04808055717920595</v>
       </c>
       <c r="R60" t="n">
-        <v>1.051502755419695</v>
+        <v>1.051502755419818</v>
       </c>
       <c r="S60" t="n">
-        <v>0.39435434023737</v>
+        <v>0.3943543402374222</v>
       </c>
       <c r="T60" t="n">
-        <v>0.8051922851023923</v>
+        <v>0.805192285102428</v>
       </c>
       <c r="U60" t="n">
-        <v>0.2355633661156307</v>
+        <v>0.2355633661156311</v>
       </c>
       <c r="V60" t="n">
-        <v>0.2219168311779329</v>
+        <v>0.2219168311779276</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002163700000000546</v>
+        <v>0.001814600000002997</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5426,7 +5426,7 @@
         <v>170.251227374169</v>
       </c>
       <c r="H61" t="n">
-        <v>5.755052122350318</v>
+        <v>5.75505212235032</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5450,25 +5450,25 @@
         <v>4.513445365968179</v>
       </c>
       <c r="P61" t="n">
-        <v>30.13737831127163</v>
+        <v>30.13737831127162</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.03990616784405569</v>
+        <v>0.03990616784405597</v>
       </c>
       <c r="R61" t="n">
-        <v>0.9957040252424243</v>
+        <v>0.9957040252424166</v>
       </c>
       <c r="S61" t="n">
-        <v>0.137537933955334</v>
+        <v>0.1375379339553337</v>
       </c>
       <c r="T61" t="n">
         <v>1.530265615951332</v>
       </c>
       <c r="U61" t="n">
-        <v>0.251153989271667</v>
+        <v>0.2511539892716669</v>
       </c>
       <c r="V61" t="n">
-        <v>0.6500741120329387</v>
+        <v>0.6500741120329401</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.001951099999999428</v>
+        <v>0.001590199999995434</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5502,13 +5502,13 @@
         <v>359.9412151513577</v>
       </c>
       <c r="F62" t="n">
-        <v>41.7918364004396</v>
+        <v>41.79183640043961</v>
       </c>
       <c r="G62" t="n">
-        <v>51.04042556320277</v>
+        <v>51.04042556320281</v>
       </c>
       <c r="H62" t="n">
-        <v>6.06176460454693</v>
+        <v>6.061764604546926</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5535,22 +5535,22 @@
         <v>44.27204887198904</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.05108815300976845</v>
+        <v>0.05108815300976739</v>
       </c>
       <c r="R62" t="n">
-        <v>1.177624998656747</v>
+        <v>1.17762499865674</v>
       </c>
       <c r="S62" t="n">
-        <v>0.3176485038605861</v>
+        <v>0.3176485038605696</v>
       </c>
       <c r="T62" t="n">
-        <v>1.274197816425775</v>
+        <v>1.274197816425739</v>
       </c>
       <c r="U62" t="n">
         <v>0.2676568787757609</v>
       </c>
       <c r="V62" t="n">
-        <v>0.6106853936931256</v>
+        <v>0.6106853936931225</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002027599999999907</v>
+        <v>0.001604199999995615</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5587,10 +5587,10 @@
         <v>40.87883923805798</v>
       </c>
       <c r="G63" t="n">
-        <v>146.8773179470486</v>
+        <v>146.8773179470485</v>
       </c>
       <c r="H63" t="n">
-        <v>5.209352542297649</v>
+        <v>5.209352542297642</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5617,22 +5617,22 @@
         <v>33.34692980414447</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.04603701822485425</v>
+        <v>0.04603701822485432</v>
       </c>
       <c r="R63" t="n">
-        <v>0.9292234031777794</v>
+        <v>0.9292234031777742</v>
       </c>
       <c r="S63" t="n">
-        <v>0.2219106843331782</v>
+        <v>0.2219106843331732</v>
       </c>
       <c r="T63" t="n">
-        <v>1.122594782175419</v>
+        <v>1.122594782175427</v>
       </c>
       <c r="U63" t="n">
-        <v>0.2579027028099613</v>
+        <v>0.2579027028099614</v>
       </c>
       <c r="V63" t="n">
-        <v>0.126153716811997</v>
+        <v>0.1261537168119953</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.001953399999999661</v>
+        <v>0.001679300000006378</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5672,7 +5672,7 @@
         <v>7.895510240026283</v>
       </c>
       <c r="H64" t="n">
-        <v>6.729279703420479</v>
+        <v>6.729279703420468</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5696,25 +5696,25 @@
         <v>2.771307440394749</v>
       </c>
       <c r="P64" t="n">
-        <v>47.69755088011619</v>
+        <v>47.69755088011618</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.04524073167555082</v>
+        <v>0.04524073167555014</v>
       </c>
       <c r="R64" t="n">
-        <v>1.798561944714434</v>
+        <v>1.798561944714431</v>
       </c>
       <c r="S64" t="n">
-        <v>0.163817173692886</v>
+        <v>0.1638171736928811</v>
       </c>
       <c r="T64" t="n">
-        <v>2.894078952183275</v>
+        <v>2.894078952183206</v>
       </c>
       <c r="U64" t="n">
         <v>0.2235116616219488</v>
       </c>
       <c r="V64" t="n">
-        <v>0.6673839049373073</v>
+        <v>0.667383904937311</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001788899999999316</v>
+        <v>0.001426000000002148</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5748,13 +5748,13 @@
         <v>359.9844072148512</v>
       </c>
       <c r="F65" t="n">
-        <v>40.52033081564352</v>
+        <v>40.52033081564355</v>
       </c>
       <c r="G65" t="n">
         <v>101.5494498342794</v>
       </c>
       <c r="H65" t="n">
-        <v>7.857248905305552</v>
+        <v>7.857248905305559</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5778,25 +5778,25 @@
         <v>16.10245225993537</v>
       </c>
       <c r="P65" t="n">
-        <v>37.48692712386831</v>
+        <v>37.48692712386833</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.05026570612635937</v>
+        <v>0.0502657061263612</v>
       </c>
       <c r="R65" t="n">
-        <v>1.13303947283529</v>
+        <v>1.133039472835389</v>
       </c>
       <c r="S65" t="n">
-        <v>0.4198163074891683</v>
+        <v>0.4198163074892071</v>
       </c>
       <c r="T65" t="n">
-        <v>0.6258214095934651</v>
+        <v>0.6258214095934846</v>
       </c>
       <c r="U65" t="n">
         <v>0.2399229444609842</v>
       </c>
       <c r="V65" t="n">
-        <v>0.08988367923836571</v>
+        <v>0.08988367923836928</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002219199999998978</v>
+        <v>0.001806899999998279</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5830,13 +5830,13 @@
         <v>0.1373551226154497</v>
       </c>
       <c r="F66" t="n">
-        <v>40.10785517859618</v>
+        <v>40.10785517859615</v>
       </c>
       <c r="G66" t="n">
         <v>71.66339449256768</v>
       </c>
       <c r="H66" t="n">
-        <v>9.329125608753586</v>
+        <v>9.329125608753575</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5857,28 +5857,28 @@
         <v>43.46372352112631</v>
       </c>
       <c r="O66" t="n">
-        <v>16.17122070357627</v>
+        <v>16.17122070357628</v>
       </c>
       <c r="P66" t="n">
-        <v>42.70289285933712</v>
+        <v>42.70289285933707</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.05011549117565867</v>
+        <v>0.0501154911756567</v>
       </c>
       <c r="R66" t="n">
-        <v>1.205313773412082</v>
+        <v>1.205313773411969</v>
       </c>
       <c r="S66" t="n">
-        <v>0.4777240241165505</v>
+        <v>0.4777240241164922</v>
       </c>
       <c r="T66" t="n">
-        <v>0.7313906271757535</v>
+        <v>0.7313906271757</v>
       </c>
       <c r="U66" t="n">
-        <v>0.2699219068045598</v>
+        <v>0.2699219068045596</v>
       </c>
       <c r="V66" t="n">
-        <v>0.2385734697446706</v>
+        <v>0.2385734697446824</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.003624399999999639</v>
+        <v>0.001954900000001203</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5912,13 +5912,13 @@
         <v>0.07227756667827417</v>
       </c>
       <c r="F67" t="n">
-        <v>39.72915602096749</v>
+        <v>39.72915602096748</v>
       </c>
       <c r="G67" t="n">
-        <v>38.12373893772386</v>
+        <v>38.1237389377238</v>
       </c>
       <c r="H67" t="n">
-        <v>3.323169608549151</v>
+        <v>3.323169608549154</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5945,22 +5945,22 @@
         <v>40.41799013174518</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.0450448383763604</v>
+        <v>0.04504483837636211</v>
       </c>
       <c r="R67" t="n">
-        <v>1.127702825908719</v>
+        <v>1.127702825908721</v>
       </c>
       <c r="S67" t="n">
-        <v>0.1958093710812653</v>
+        <v>0.195809371081276</v>
       </c>
       <c r="T67" t="n">
-        <v>1.711047337642434</v>
+        <v>1.71104733764252</v>
       </c>
       <c r="U67" t="n">
-        <v>0.2480382160391456</v>
+        <v>0.2480382160391454</v>
       </c>
       <c r="V67" t="n">
-        <v>0.09328064086293847</v>
+        <v>0.09328064086293725</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.001787499999998943</v>
+        <v>0.001452100000001622</v>
       </c>
       <c r="Y67" t="n">
         <v>7</v>
@@ -5997,10 +5997,10 @@
         <v>39.05249768866681</v>
       </c>
       <c r="G68" t="n">
-        <v>31.23316706401507</v>
+        <v>31.23316706401515</v>
       </c>
       <c r="H68" t="n">
-        <v>3.863907894706434</v>
+        <v>3.863907894706421</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -6027,22 +6027,22 @@
         <v>40.55591295196955</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.04355223760416545</v>
+        <v>0.04355223760416439</v>
       </c>
       <c r="R68" t="n">
-        <v>1.120010638462794</v>
+        <v>1.120010638462803</v>
       </c>
       <c r="S68" t="n">
-        <v>0.1889390242360021</v>
+        <v>0.1889390242359938</v>
       </c>
       <c r="T68" t="n">
-        <v>1.716411451996691</v>
+        <v>1.71641145199664</v>
       </c>
       <c r="U68" t="n">
-        <v>0.2453122921117697</v>
+        <v>0.2453122921117698</v>
       </c>
       <c r="V68" t="n">
-        <v>0.5749556185020839</v>
+        <v>0.5749556185020932</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002149199999999851</v>
+        <v>0.001589799999997865</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6076,13 +6076,13 @@
         <v>0.1292754750485128</v>
       </c>
       <c r="F69" t="n">
-        <v>38.44080114892833</v>
+        <v>38.44080114892829</v>
       </c>
       <c r="G69" t="n">
         <v>99.7863837768991</v>
       </c>
       <c r="H69" t="n">
-        <v>12.47804857084276</v>
+        <v>12.47804857084274</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -6106,25 +6106,25 @@
         <v>25.69547339823243</v>
       </c>
       <c r="P69" t="n">
-        <v>36.93127509864272</v>
+        <v>36.93127509864268</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.04764106842501081</v>
+        <v>0.04764106842501378</v>
       </c>
       <c r="R69" t="n">
-        <v>1.186267399122755</v>
+        <v>1.186267399122695</v>
       </c>
       <c r="S69" t="n">
-        <v>0.5940583072259795</v>
+        <v>0.5940583072259762</v>
       </c>
       <c r="T69" t="n">
-        <v>0.3466816595752832</v>
+        <v>0.3466816595753041</v>
       </c>
       <c r="U69" t="n">
         <v>0.2436177950878793</v>
       </c>
       <c r="V69" t="n">
-        <v>0.3105723157309752</v>
+        <v>0.3105723157309804</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.002611800000000386</v>
+        <v>0.002598100000000159</v>
       </c>
       <c r="Y69" t="n">
         <v>10</v>
@@ -6161,10 +6161,10 @@
         <v>39.50524845826774</v>
       </c>
       <c r="G70" t="n">
-        <v>51.80970373947073</v>
+        <v>51.80970373947079</v>
       </c>
       <c r="H70" t="n">
-        <v>3.153939302254324</v>
+        <v>3.15393930225432</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -6191,22 +6191,22 @@
         <v>39.44426413478286</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.04486547762400484</v>
+        <v>0.0448654776240047</v>
       </c>
       <c r="R70" t="n">
-        <v>1.047893769027763</v>
+        <v>1.047893769027772</v>
       </c>
       <c r="S70" t="n">
-        <v>0.2081604831141241</v>
+        <v>0.2081604831141247</v>
       </c>
       <c r="T70" t="n">
-        <v>1.509109995467792</v>
+        <v>1.509109995467782</v>
       </c>
       <c r="U70" t="n">
         <v>0.2515078953082633</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4379794580940894</v>
+        <v>0.437979458094094</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002043500000000975</v>
+        <v>0.001629199999996445</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6240,13 +6240,13 @@
         <v>0.07592988278910061</v>
       </c>
       <c r="F71" t="n">
-        <v>37.41627970609748</v>
+        <v>37.41627970609751</v>
       </c>
       <c r="G71" t="n">
-        <v>53.35102959337533</v>
+        <v>53.35102959337535</v>
       </c>
       <c r="H71" t="n">
-        <v>11.53929961038786</v>
+        <v>11.53929961038787</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -6270,25 +6270,25 @@
         <v>15.97653450599794</v>
       </c>
       <c r="P71" t="n">
-        <v>44.79565832168925</v>
+        <v>44.79565832168928</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.04815348852310863</v>
+        <v>0.04815348852310924</v>
       </c>
       <c r="R71" t="n">
-        <v>1.115582218267237</v>
+        <v>1.115582218267213</v>
       </c>
       <c r="S71" t="n">
-        <v>0.4761037046862889</v>
+        <v>0.4761037046862862</v>
       </c>
       <c r="T71" t="n">
-        <v>0.7870972569123202</v>
+        <v>0.7870972569123313</v>
       </c>
       <c r="U71" t="n">
-        <v>0.2614066912155156</v>
+        <v>0.2614066912155151</v>
       </c>
       <c r="V71" t="n">
-        <v>0.3802830336178235</v>
+        <v>0.3802830336178215</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.0033183999999995</v>
+        <v>0.001769099999997081</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6322,7 +6322,7 @@
         <v>0.06103067697704151</v>
       </c>
       <c r="F72" t="n">
-        <v>39.21812560376492</v>
+        <v>39.21812560376493</v>
       </c>
       <c r="G72" t="n">
         <v>167.8376259258444</v>
@@ -6349,28 +6349,28 @@
         <v>22.16891449794234</v>
       </c>
       <c r="O72" t="n">
-        <v>12.43847564812866</v>
+        <v>12.43847564812868</v>
       </c>
       <c r="P72" t="n">
-        <v>21.37041154374523</v>
+        <v>21.37041154374524</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.04256793885197611</v>
+        <v>0.04256793885197792</v>
       </c>
       <c r="R72" t="n">
-        <v>0.7075589635826055</v>
+        <v>0.707558963582666</v>
       </c>
       <c r="S72" t="n">
-        <v>0.2063140668765704</v>
+        <v>0.2063140668765942</v>
       </c>
       <c r="T72" t="n">
-        <v>0.5516180162348525</v>
+        <v>0.5516180162348564</v>
       </c>
       <c r="U72" t="n">
-        <v>0.2523531116338164</v>
+        <v>0.2523531116338165</v>
       </c>
       <c r="V72" t="n">
-        <v>0.123415607338451</v>
+        <v>0.1234156073384504</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.002016899999999211</v>
+        <v>0.001643099999995457</v>
       </c>
       <c r="Y72" t="n">
         <v>8</v>
@@ -6407,10 +6407,10 @@
         <v>40.55315978518811</v>
       </c>
       <c r="G73" t="n">
-        <v>40.04278199772111</v>
+        <v>40.04278199772119</v>
       </c>
       <c r="H73" t="n">
-        <v>6.26497870071559</v>
+        <v>6.264978700715577</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6434,25 +6434,25 @@
         <v>7.86022315528581</v>
       </c>
       <c r="P73" t="n">
-        <v>44.10668038554659</v>
+        <v>44.10668038554657</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.04905798893441451</v>
+        <v>0.04905798893441486</v>
       </c>
       <c r="R73" t="n">
-        <v>1.127983596874292</v>
+        <v>1.127983596874305</v>
       </c>
       <c r="S73" t="n">
-        <v>0.2843574570284337</v>
+        <v>0.2843574570284411</v>
       </c>
       <c r="T73" t="n">
-        <v>1.37966025228864</v>
+        <v>1.379660252288647</v>
       </c>
       <c r="U73" t="n">
         <v>0.2447114086251564</v>
       </c>
       <c r="V73" t="n">
-        <v>0.6655242400173755</v>
+        <v>0.6655242400173815</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.001799099999999498</v>
+        <v>0.001551100000000361</v>
       </c>
       <c r="Y73" t="n">
         <v>7</v>
@@ -6486,13 +6486,13 @@
         <v>359.959186463638</v>
       </c>
       <c r="F74" t="n">
-        <v>39.90857138488279</v>
+        <v>39.9085713848828</v>
       </c>
       <c r="G74" t="n">
         <v>17.9368772172845</v>
       </c>
       <c r="H74" t="n">
-        <v>12.54702666492022</v>
+        <v>12.54702666492024</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -6516,25 +6516,25 @@
         <v>6.388144255981816</v>
       </c>
       <c r="P74" t="n">
-        <v>51.93932691986305</v>
+        <v>51.9393269198631</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.04948066609721902</v>
+        <v>0.04948066609721809</v>
       </c>
       <c r="R74" t="n">
-        <v>1.280220050559647</v>
+        <v>1.280220050559676</v>
       </c>
       <c r="S74" t="n">
-        <v>0.2877661410636851</v>
+        <v>0.2877661410636879</v>
       </c>
       <c r="T74" t="n">
-        <v>1.798202677977122</v>
+        <v>1.798202677977081</v>
       </c>
       <c r="U74" t="n">
         <v>0.2522230273348113</v>
       </c>
       <c r="V74" t="n">
-        <v>0.3832015507958134</v>
+        <v>0.383201550795819</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.001864300000001151</v>
+        <v>0.001482199999998102</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6568,13 +6568,13 @@
         <v>359.958918616903</v>
       </c>
       <c r="F75" t="n">
-        <v>41.58745362739614</v>
+        <v>41.58745362739617</v>
       </c>
       <c r="G75" t="n">
         <v>113.2150964896987</v>
       </c>
       <c r="H75" t="n">
-        <v>9.949440642217487</v>
+        <v>9.949440642217494</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6598,25 +6598,25 @@
         <v>19.46947174928467</v>
       </c>
       <c r="P75" t="n">
-        <v>36.34290290868846</v>
+        <v>36.34290290868849</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.05199503828090968</v>
+        <v>0.05199503828091034</v>
       </c>
       <c r="R75" t="n">
-        <v>1.23266131296415</v>
+        <v>1.232661312964216</v>
       </c>
       <c r="S75" t="n">
-        <v>0.4876708785963414</v>
+        <v>0.4876708785963705</v>
       </c>
       <c r="T75" t="n">
         <v>0.4801684248159861</v>
       </c>
       <c r="U75" t="n">
-        <v>0.2276306718431044</v>
+        <v>0.2276306718431042</v>
       </c>
       <c r="V75" t="n">
-        <v>0.3118747249007685</v>
+        <v>0.3118747249007718</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002503799999999501</v>
+        <v>0.002016799999999819</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6650,13 +6650,13 @@
         <v>359.9550473762699</v>
       </c>
       <c r="F76" t="n">
-        <v>39.61514188387077</v>
+        <v>39.6151418838708</v>
       </c>
       <c r="G76" t="n">
-        <v>36.68525625311842</v>
+        <v>36.68525625311841</v>
       </c>
       <c r="H76" t="n">
-        <v>12.15527173465312</v>
+        <v>12.15527173465314</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6680,25 +6680,25 @@
         <v>11.43921482501114</v>
       </c>
       <c r="P76" t="n">
-        <v>49.68288862717347</v>
+        <v>49.6828886271735</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.05138172480027384</v>
+        <v>0.05138172480027362</v>
       </c>
       <c r="R76" t="n">
-        <v>1.226941494791691</v>
+        <v>1.22694149479178</v>
       </c>
       <c r="S76" t="n">
-        <v>0.4229963938699273</v>
+        <v>0.4229963938699569</v>
       </c>
       <c r="T76" t="n">
-        <v>1.153275272653322</v>
+        <v>1.153275272653339</v>
       </c>
       <c r="U76" t="n">
         <v>0.227625001331233</v>
       </c>
       <c r="V76" t="n">
-        <v>0.08784113091119458</v>
+        <v>0.08784113091118947</v>
       </c>
       <c r="W76" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.00235690000000055</v>
+        <v>0.001960999999994328</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6735,10 +6735,10 @@
         <v>41.68020399240852</v>
       </c>
       <c r="G77" t="n">
-        <v>92.76883454347248</v>
+        <v>92.76883454347237</v>
       </c>
       <c r="H77" t="n">
-        <v>4.154143241102674</v>
+        <v>4.154143241102675</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6762,25 +6762,25 @@
         <v>8.898661218596322</v>
       </c>
       <c r="P77" t="n">
-        <v>39.2959612066898</v>
+        <v>39.29596120668981</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.04962537270425059</v>
+        <v>0.04962537270424923</v>
       </c>
       <c r="R77" t="n">
-        <v>1.076682772615345</v>
+        <v>1.076682772615309</v>
       </c>
       <c r="S77" t="n">
-        <v>0.2843687918682067</v>
+        <v>0.284368791868183</v>
       </c>
       <c r="T77" t="n">
-        <v>1.143468555520721</v>
+        <v>1.143468555520682</v>
       </c>
       <c r="U77" t="n">
-        <v>0.2396035183457358</v>
+        <v>0.2396035183457359</v>
       </c>
       <c r="V77" t="n">
-        <v>0.6244432177745856</v>
+        <v>0.6244432177745892</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.001783800000000113</v>
+        <v>0.001435600000000647</v>
       </c>
       <c r="Y77" t="n">
         <v>7</v>
@@ -6847,22 +6847,22 @@
         <v>47.6366056638391</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.0520502073972918</v>
+        <v>0.05205020739729058</v>
       </c>
       <c r="R78" t="n">
-        <v>1.279631183018856</v>
+        <v>1.279631183018709</v>
       </c>
       <c r="S78" t="n">
-        <v>0.5585755033407327</v>
+        <v>0.5585755033406757</v>
       </c>
       <c r="T78" t="n">
-        <v>0.8087374921972675</v>
+        <v>0.8087374921972313</v>
       </c>
       <c r="U78" t="n">
-        <v>0.2383402505368732</v>
+        <v>0.2383402505368731</v>
       </c>
       <c r="V78" t="n">
-        <v>0.03969035294943016</v>
+        <v>0.03969035294943051</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.004213099999999415</v>
+        <v>0.002312899999999729</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6902,7 +6902,7 @@
         <v>164.9557652775192</v>
       </c>
       <c r="H79" t="n">
-        <v>10.37474076099914</v>
+        <v>10.37474076099913</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6926,25 +6926,25 @@
         <v>9.964104053646489</v>
       </c>
       <c r="P79" t="n">
-        <v>25.51314988186911</v>
+        <v>25.51314988186912</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.04346501228213641</v>
+        <v>0.04346501228213553</v>
       </c>
       <c r="R79" t="n">
-        <v>0.7583808174138151</v>
+        <v>0.7583808174138112</v>
       </c>
       <c r="S79" t="n">
-        <v>0.2035434944739302</v>
+        <v>0.2035434944739174</v>
       </c>
       <c r="T79" t="n">
-        <v>0.7678679614248525</v>
+        <v>0.767867961424837</v>
       </c>
       <c r="U79" t="n">
         <v>0.2496556756585825</v>
       </c>
       <c r="V79" t="n">
-        <v>0.110989240774477</v>
+        <v>0.1109892407744806</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.002120100000000846</v>
+        <v>0.002079599999994741</v>
       </c>
       <c r="Y79" t="n">
         <v>8</v>
@@ -6978,13 +6978,13 @@
         <v>359.9564914896246</v>
       </c>
       <c r="F80" t="n">
-        <v>41.66179595343226</v>
+        <v>41.66179595343228</v>
       </c>
       <c r="G80" t="n">
-        <v>10.57266658815713</v>
+        <v>10.57266658815714</v>
       </c>
       <c r="H80" t="n">
-        <v>9.747413806642211</v>
+        <v>9.747413806642202</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -7008,25 +7008,25 @@
         <v>3.718598093225876</v>
       </c>
       <c r="P80" t="n">
-        <v>50.65037809647091</v>
+        <v>50.6503780964709</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.04706343233576679</v>
+        <v>0.04706343233576666</v>
       </c>
       <c r="R80" t="n">
         <v>1.569047920302734</v>
       </c>
       <c r="S80" t="n">
-        <v>0.2028584735079733</v>
+        <v>0.2028584735079703</v>
       </c>
       <c r="T80" t="n">
-        <v>2.526283587121608</v>
+        <v>2.526283587121585</v>
       </c>
       <c r="U80" t="n">
-        <v>0.251121967843073</v>
+        <v>0.2511219678430729</v>
       </c>
       <c r="V80" t="n">
-        <v>0.3969545634034515</v>
+        <v>0.3969545634034545</v>
       </c>
       <c r="W80" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.002029600000000187</v>
+        <v>0.001614799999998695</v>
       </c>
       <c r="Y80" t="n">
         <v>8</v>
@@ -7060,13 +7060,13 @@
         <v>359.8542541125003</v>
       </c>
       <c r="F81" t="n">
-        <v>41.00191270937935</v>
+        <v>41.00191270937933</v>
       </c>
       <c r="G81" t="n">
-        <v>81.98290207437238</v>
+        <v>81.98290207437239</v>
       </c>
       <c r="H81" t="n">
-        <v>9.452456879647553</v>
+        <v>9.452456879647547</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -7090,25 +7090,25 @@
         <v>17.10349025623432</v>
       </c>
       <c r="P81" t="n">
-        <v>41.81674403172666</v>
+        <v>41.81674403172663</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.05325502658692838</v>
+        <v>0.05325502658693369</v>
       </c>
       <c r="R81" t="n">
-        <v>1.252531538049307</v>
+        <v>1.252531538049503</v>
       </c>
       <c r="S81" t="n">
-        <v>0.5011416521833812</v>
+        <v>0.5011416521834767</v>
       </c>
       <c r="T81" t="n">
-        <v>0.6609210445051039</v>
+        <v>0.660921044505173</v>
       </c>
       <c r="U81" t="n">
-        <v>0.2358739412250299</v>
+        <v>0.2358739412250301</v>
       </c>
       <c r="V81" t="n">
-        <v>0.5668489754052555</v>
+        <v>0.5668489754052517</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002578300000001477</v>
+        <v>0.002049100000000692</v>
       </c>
       <c r="Y81" t="n">
         <v>10</v>
@@ -7142,13 +7142,13 @@
         <v>359.9837124829202</v>
       </c>
       <c r="F82" t="n">
-        <v>39.58144362778341</v>
+        <v>39.58144362778343</v>
       </c>
       <c r="G82" t="n">
-        <v>97.07836080971518</v>
+        <v>97.07836080971512</v>
       </c>
       <c r="H82" t="n">
-        <v>11.12701322558632</v>
+        <v>11.12701322558633</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -7172,25 +7172,25 @@
         <v>22.19464390775409</v>
       </c>
       <c r="P82" t="n">
-        <v>38.14610694701847</v>
+        <v>38.1461069470185</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.05029212889158059</v>
+        <v>0.05029212889157349</v>
       </c>
       <c r="R82" t="n">
-        <v>1.209299760611127</v>
+        <v>1.209299760610768</v>
       </c>
       <c r="S82" t="n">
-        <v>0.5527411102829373</v>
+        <v>0.552741110282759</v>
       </c>
       <c r="T82" t="n">
-        <v>0.4372824774453912</v>
+        <v>0.4372824774453398</v>
       </c>
       <c r="U82" t="n">
         <v>0.2386784013302787</v>
       </c>
       <c r="V82" t="n">
-        <v>0.2069248848045881</v>
+        <v>0.2069248848045843</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002460699999998539</v>
+        <v>0.002739500000004114</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7224,13 +7224,13 @@
         <v>0.1172595107823307</v>
       </c>
       <c r="F83" t="n">
-        <v>41.602515477018</v>
+        <v>41.60251547701798</v>
       </c>
       <c r="G83" t="n">
-        <v>75.69141416559306</v>
+        <v>75.6914141655932</v>
       </c>
       <c r="H83" t="n">
-        <v>6.54523325533676</v>
+        <v>6.545233255336745</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -7254,25 +7254,25 @@
         <v>12.22333764825219</v>
       </c>
       <c r="P83" t="n">
-        <v>41.87655834701719</v>
+        <v>41.87655834701714</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.05095807382145962</v>
+        <v>0.05095807382146041</v>
       </c>
       <c r="R83" t="n">
-        <v>1.179326248417058</v>
+        <v>1.17932624841705</v>
       </c>
       <c r="S83" t="n">
-        <v>0.3825257582332997</v>
+        <v>0.3825257582333027</v>
       </c>
       <c r="T83" t="n">
-        <v>0.931870757001442</v>
+        <v>0.9318707570014604</v>
       </c>
       <c r="U83" t="n">
-        <v>0.2529512906025497</v>
+        <v>0.2529512906025498</v>
       </c>
       <c r="V83" t="n">
-        <v>0.5223579752708545</v>
+        <v>0.5223579752708646</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002355200000000224</v>
+        <v>0.001817100000003791</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7306,13 +7306,13 @@
         <v>359.9189022325308</v>
       </c>
       <c r="F84" t="n">
-        <v>40.07764481332021</v>
+        <v>40.07764481332023</v>
       </c>
       <c r="G84" t="n">
-        <v>45.88899853118317</v>
+        <v>45.88899853118318</v>
       </c>
       <c r="H84" t="n">
-        <v>11.8079648596675</v>
+        <v>11.80796485966751</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -7336,25 +7336,25 @@
         <v>13.41512830431555</v>
       </c>
       <c r="P84" t="n">
-        <v>48.65144393504642</v>
+        <v>48.65144393504643</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.05245107118166886</v>
+        <v>0.05245107118166732</v>
       </c>
       <c r="R84" t="n">
-        <v>1.260904875680159</v>
+        <v>1.260904875680126</v>
       </c>
       <c r="S84" t="n">
-        <v>0.4746025057187729</v>
+        <v>0.4746025057187483</v>
       </c>
       <c r="T84" t="n">
-        <v>0.9988962239484768</v>
+        <v>0.9988962239484257</v>
       </c>
       <c r="U84" t="n">
-        <v>0.2694447826916729</v>
+        <v>0.269444782691673</v>
       </c>
       <c r="V84" t="n">
-        <v>0.4215234031216797</v>
+        <v>0.4215234031216807</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.00225829999999938</v>
+        <v>0.001812399999998604</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7388,13 +7388,13 @@
         <v>359.9986431915935</v>
       </c>
       <c r="F85" t="n">
-        <v>38.7749957186763</v>
+        <v>38.77499571867632</v>
       </c>
       <c r="G85" t="n">
         <v>46.18962901788667</v>
       </c>
       <c r="H85" t="n">
-        <v>10.73718427718456</v>
+        <v>10.73718427718457</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -7418,25 +7418,25 @@
         <v>13.07283812403494</v>
       </c>
       <c r="P85" t="n">
-        <v>46.27768355644255</v>
+        <v>46.27768355644258</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.0498671992492466</v>
+        <v>0.04986719924924329</v>
       </c>
       <c r="R85" t="n">
-        <v>1.155252607665788</v>
+        <v>1.155252607665657</v>
       </c>
       <c r="S85" t="n">
-        <v>0.4286320621380987</v>
+        <v>0.4286320621380301</v>
       </c>
       <c r="T85" t="n">
-        <v>0.9610301095320003</v>
+        <v>0.9610301095318993</v>
       </c>
       <c r="U85" t="n">
-        <v>0.2475050349990616</v>
+        <v>0.2475050349990617</v>
       </c>
       <c r="V85" t="n">
-        <v>0.1777283693326959</v>
+        <v>0.1777283693326921</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.003249999999999531</v>
+        <v>0.001949400000000878</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7470,7 +7470,7 @@
         <v>0.1380275725160268</v>
       </c>
       <c r="F86" t="n">
-        <v>41.4699132861326</v>
+        <v>41.46991328613261</v>
       </c>
       <c r="G86" t="n">
         <v>8.329675679922367</v>
@@ -7500,25 +7500,25 @@
         <v>2.97511455211877</v>
       </c>
       <c r="P86" t="n">
-        <v>46.84686143720916</v>
+        <v>46.84686143720918</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.04618637968298064</v>
+        <v>0.04618637968298068</v>
       </c>
       <c r="R86" t="n">
-        <v>1.716710074489267</v>
+        <v>1.716710074489277</v>
       </c>
       <c r="S86" t="n">
-        <v>0.1663218478884909</v>
+        <v>0.1663218478884897</v>
       </c>
       <c r="T86" t="n">
-        <v>2.763264223047095</v>
+        <v>2.763264223047111</v>
       </c>
       <c r="U86" t="n">
         <v>0.2793788893966251</v>
       </c>
       <c r="V86" t="n">
-        <v>0.2949618502654217</v>
+        <v>0.2949618502654222</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001810500000001269</v>
+        <v>0.001471899999998527</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7555,7 +7555,7 @@
         <v>40.03804105172114</v>
       </c>
       <c r="G87" t="n">
-        <v>110.7883424550241</v>
+        <v>110.7883424550242</v>
       </c>
       <c r="H87" t="n">
         <v>9.074865090970825</v>
@@ -7582,25 +7582,25 @@
         <v>18.72681483093169</v>
       </c>
       <c r="P87" t="n">
-        <v>35.43247596291978</v>
+        <v>35.43247596291976</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.04926756426367319</v>
+        <v>0.04926756426367035</v>
       </c>
       <c r="R87" t="n">
-        <v>1.125626884170307</v>
+        <v>1.125626884170242</v>
       </c>
       <c r="S87" t="n">
-        <v>0.4450466855536838</v>
+        <v>0.4450466855536457</v>
       </c>
       <c r="T87" t="n">
-        <v>0.4959052458354407</v>
+        <v>0.4959052458354101</v>
       </c>
       <c r="U87" t="n">
-        <v>0.2551862941777426</v>
+        <v>0.2551862941777429</v>
       </c>
       <c r="V87" t="n">
-        <v>0.04943245065973586</v>
+        <v>0.04943245065973201</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.003898400000000635</v>
+        <v>0.002046299999996393</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7637,10 +7637,10 @@
         <v>40.03195425122911</v>
       </c>
       <c r="G88" t="n">
-        <v>43.09254205211115</v>
+        <v>43.09254205211109</v>
       </c>
       <c r="H88" t="n">
-        <v>4.65523120592294</v>
+        <v>4.655231205922948</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7664,25 +7664,25 @@
         <v>6.837989434818459</v>
       </c>
       <c r="P88" t="n">
-        <v>41.7922534844733</v>
+        <v>41.79225348447331</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.04704296544106541</v>
+        <v>0.04704296544106661</v>
       </c>
       <c r="R88" t="n">
-        <v>1.079359103164371</v>
+        <v>1.079359103164351</v>
       </c>
       <c r="S88" t="n">
-        <v>0.2425817395866235</v>
+        <v>0.2425817395866277</v>
       </c>
       <c r="T88" t="n">
-        <v>1.448824665386842</v>
+        <v>1.448824665386894</v>
       </c>
       <c r="U88" t="n">
         <v>0.25333441328221</v>
       </c>
       <c r="V88" t="n">
-        <v>0.6013370675916767</v>
+        <v>0.6013370675916712</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002075300000001334</v>
+        <v>0.001625400000001775</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7716,13 +7716,13 @@
         <v>0.004777107841447642</v>
       </c>
       <c r="F89" t="n">
-        <v>40.31746865134814</v>
+        <v>40.31746865134817</v>
       </c>
       <c r="G89" t="n">
         <v>118.6460218765174</v>
       </c>
       <c r="H89" t="n">
-        <v>14.59509627679144</v>
+        <v>14.59509627679146</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7746,25 +7746,25 @@
         <v>29.44704053897991</v>
       </c>
       <c r="P89" t="n">
-        <v>33.65243474922794</v>
+        <v>33.65243474922798</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.05041726969678682</v>
+        <v>0.05041726969678625</v>
       </c>
       <c r="R89" t="n">
-        <v>1.295980199727179</v>
+        <v>1.295980199727097</v>
       </c>
       <c r="S89" t="n">
-        <v>0.634949419981375</v>
+        <v>0.6349494199813394</v>
       </c>
       <c r="T89" t="n">
-        <v>0.2680276950323341</v>
+        <v>0.268027695032334</v>
       </c>
       <c r="U89" t="n">
-        <v>0.2522961661418782</v>
+        <v>0.2522961661418785</v>
       </c>
       <c r="V89" t="n">
-        <v>0.04833258063767068</v>
+        <v>0.04833258063767455</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.002675200000000544</v>
+        <v>0.002299800000002961</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7801,10 +7801,10 @@
         <v>41.7286620249273</v>
       </c>
       <c r="G90" t="n">
-        <v>115.3342913730964</v>
+        <v>115.3342913730965</v>
       </c>
       <c r="H90" t="n">
-        <v>9.534826646931926</v>
+        <v>9.534826646931924</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7825,28 +7825,28 @@
         <v>34.2946546952799</v>
       </c>
       <c r="O90" t="n">
-        <v>18.59944951914042</v>
+        <v>18.59944951914044</v>
       </c>
       <c r="P90" t="n">
-        <v>36.10191952960708</v>
+        <v>36.10191952960707</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.05152633698938411</v>
+        <v>0.05152633698938727</v>
       </c>
       <c r="R90" t="n">
-        <v>1.217759881762034</v>
+        <v>1.217759881762065</v>
       </c>
       <c r="S90" t="n">
-        <v>0.4667026940297005</v>
+        <v>0.4667026940297296</v>
       </c>
       <c r="T90" t="n">
-        <v>0.5061339162829616</v>
+        <v>0.5061339162829896</v>
       </c>
       <c r="U90" t="n">
-        <v>0.2490661918834168</v>
+        <v>0.2490661918834166</v>
       </c>
       <c r="V90" t="n">
-        <v>0.2488066858185076</v>
+        <v>0.248806685818505</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002541400000000138</v>
+        <v>0.0020150000000001</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7880,13 +7880,13 @@
         <v>0.1182014141801674</v>
       </c>
       <c r="F91" t="n">
-        <v>40.02899948831025</v>
+        <v>40.02899948831026</v>
       </c>
       <c r="G91" t="n">
         <v>101.074213098327</v>
       </c>
       <c r="H91" t="n">
-        <v>5.844042671618627</v>
+        <v>5.844042671618631</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7913,22 +7913,22 @@
         <v>36.971677509634</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.04812875438188616</v>
+        <v>0.04812875438188718</v>
       </c>
       <c r="R91" t="n">
-        <v>1.032912168293187</v>
+        <v>1.032912168293209</v>
       </c>
       <c r="S91" t="n">
-        <v>0.3380622789742936</v>
+        <v>0.3380622789743069</v>
       </c>
       <c r="T91" t="n">
-        <v>0.793616392669053</v>
+        <v>0.7936163926690701</v>
       </c>
       <c r="U91" t="n">
         <v>0.2598614903646589</v>
       </c>
       <c r="V91" t="n">
-        <v>0.4389787550835982</v>
+        <v>0.438978755083596</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002008200000000571</v>
+        <v>0.00158200000000619</v>
       </c>
       <c r="Y91" t="n">
         <v>8</v>
@@ -7965,10 +7965,10 @@
         <v>38.3676025202251</v>
       </c>
       <c r="G92" t="n">
-        <v>20.57166180500669</v>
+        <v>20.57166180500671</v>
       </c>
       <c r="H92" t="n">
-        <v>6.493905595140252</v>
+        <v>6.493905595140243</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7992,25 +7992,25 @@
         <v>5.144100862159804</v>
       </c>
       <c r="P92" t="n">
-        <v>43.22107886707269</v>
+        <v>43.22107886707268</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.04392982778955563</v>
+        <v>0.04392982778955532</v>
       </c>
       <c r="R92" t="n">
-        <v>1.139152261956362</v>
+        <v>1.139152261956341</v>
       </c>
       <c r="S92" t="n">
-        <v>0.2015842616811624</v>
+        <v>0.201584261681159</v>
       </c>
       <c r="T92" t="n">
-        <v>1.746617590101491</v>
+        <v>1.746617590101469</v>
       </c>
       <c r="U92" t="n">
-        <v>0.2678864369404764</v>
+        <v>0.2678864369404763</v>
       </c>
       <c r="V92" t="n">
-        <v>1.027957583091927</v>
+        <v>1.027957583091921</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.00213979999999836</v>
+        <v>0.00171439999999734</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8044,13 +8044,13 @@
         <v>359.9175508567703</v>
       </c>
       <c r="F93" t="n">
-        <v>38.84827131255023</v>
+        <v>38.84827131255025</v>
       </c>
       <c r="G93" t="n">
-        <v>34.67427215324989</v>
+        <v>34.67427215324984</v>
       </c>
       <c r="H93" t="n">
-        <v>7.125052440913727</v>
+        <v>7.125052440913752</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8074,25 +8074,25 @@
         <v>7.868127656610163</v>
       </c>
       <c r="P93" t="n">
-        <v>43.67459966281323</v>
+        <v>43.67459966281327</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.04720482136451705</v>
+        <v>0.04720482136451734</v>
       </c>
       <c r="R93" t="n">
-        <v>1.062467346020575</v>
+        <v>1.062467346020574</v>
       </c>
       <c r="S93" t="n">
-        <v>0.2739520161032893</v>
+        <v>0.2739520161032887</v>
       </c>
       <c r="T93" t="n">
-        <v>1.325346689947126</v>
+        <v>1.325346689947133</v>
       </c>
       <c r="U93" t="n">
         <v>0.2351133619959455</v>
       </c>
       <c r="V93" t="n">
-        <v>0.1345498312026363</v>
+        <v>0.134549831202645</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.001794500000000809</v>
+        <v>0.001470799999999883</v>
       </c>
       <c r="Y93" t="n">
         <v>7</v>
@@ -8126,7 +8126,7 @@
         <v>0.1185235835561043</v>
       </c>
       <c r="F94" t="n">
-        <v>38.8479119873021</v>
+        <v>38.84791198730211</v>
       </c>
       <c r="G94" t="n">
         <v>163.2544411444971</v>
@@ -8159,22 +8159,22 @@
         <v>21.90176264206725</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.04312276916592743</v>
+        <v>0.04312276916593166</v>
       </c>
       <c r="R94" t="n">
-        <v>0.7716521675792983</v>
+        <v>0.7716521675793545</v>
       </c>
       <c r="S94" t="n">
-        <v>0.2429413836748434</v>
+        <v>0.2429413836748758</v>
       </c>
       <c r="T94" t="n">
-        <v>0.4373958401964973</v>
+        <v>0.4373958401965297</v>
       </c>
       <c r="U94" t="n">
         <v>0.2224306027148113</v>
       </c>
       <c r="V94" t="n">
-        <v>0.3942127957059621</v>
+        <v>0.3942127957059627</v>
       </c>
       <c r="W94" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.003000000000000114</v>
+        <v>0.001802600000004873</v>
       </c>
       <c r="Y94" t="n">
         <v>9</v>
@@ -8208,13 +8208,13 @@
         <v>359.9763149237594</v>
       </c>
       <c r="F95" t="n">
-        <v>38.82601359607298</v>
+        <v>38.82601359607301</v>
       </c>
       <c r="G95" t="n">
         <v>109.0400109215894</v>
       </c>
       <c r="H95" t="n">
-        <v>10.51751849306666</v>
+        <v>10.51751849306667</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -8238,25 +8238,25 @@
         <v>22.18211064016083</v>
       </c>
       <c r="P95" t="n">
-        <v>34.65735493532527</v>
+        <v>34.65735493532531</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.04867305021676542</v>
+        <v>0.04867305021676731</v>
       </c>
       <c r="R95" t="n">
-        <v>1.11479126121387</v>
+        <v>1.11479126121401</v>
       </c>
       <c r="S95" t="n">
-        <v>0.4917802848997034</v>
+        <v>0.4917802848997641</v>
       </c>
       <c r="T95" t="n">
-        <v>0.3897119772730049</v>
+        <v>0.3897119772730117</v>
       </c>
       <c r="U95" t="n">
-        <v>0.2249287433721025</v>
+        <v>0.2249287433721021</v>
       </c>
       <c r="V95" t="n">
-        <v>0.1468973151155962</v>
+        <v>0.1468973151155913</v>
       </c>
       <c r="W95" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002510700000000199</v>
+        <v>0.002621700000005944</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8290,13 +8290,13 @@
         <v>0.01701683724218519</v>
       </c>
       <c r="F96" t="n">
-        <v>39.06269655746927</v>
+        <v>39.06269655746924</v>
       </c>
       <c r="G96" t="n">
         <v>128.9768552307968</v>
       </c>
       <c r="H96" t="n">
-        <v>9.91386988167433</v>
+        <v>9.913869881674326</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -8320,25 +8320,25 @@
         <v>19.80541160527384</v>
       </c>
       <c r="P96" t="n">
-        <v>30.78418978070898</v>
+        <v>30.78418978070895</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.04731710900051271</v>
+        <v>0.04731710900050828</v>
       </c>
       <c r="R96" t="n">
-        <v>1.022891386790004</v>
+        <v>1.022891386789918</v>
       </c>
       <c r="S96" t="n">
-        <v>0.3985654735531423</v>
+        <v>0.3985654735530854</v>
       </c>
       <c r="T96" t="n">
-        <v>0.4018912841280036</v>
+        <v>0.4018912841279799</v>
       </c>
       <c r="U96" t="n">
-        <v>0.2490095488765638</v>
+        <v>0.2490095488765639</v>
       </c>
       <c r="V96" t="n">
-        <v>0.1628083895108097</v>
+        <v>0.1628083895108099</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002470599999998768</v>
+        <v>0.002004999999996926</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8372,13 +8372,13 @@
         <v>359.9736056060754</v>
       </c>
       <c r="F97" t="n">
-        <v>40.12018030028825</v>
+        <v>40.12018030028826</v>
       </c>
       <c r="G97" t="n">
         <v>38.5125061215656</v>
       </c>
       <c r="H97" t="n">
-        <v>5.744544022244137</v>
+        <v>5.744544022244141</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -8402,25 +8402,25 @@
         <v>7.23309899327558</v>
       </c>
       <c r="P97" t="n">
-        <v>43.24186219033477</v>
+        <v>43.24186219033479</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.04789627624551718</v>
+        <v>0.04789627624551662</v>
       </c>
       <c r="R97" t="n">
-        <v>1.102168870262216</v>
+        <v>1.102168870262189</v>
       </c>
       <c r="S97" t="n">
-        <v>0.2611785051787789</v>
+        <v>0.2611785051787652</v>
       </c>
       <c r="T97" t="n">
-        <v>1.427763292472556</v>
+        <v>1.427763292472531</v>
       </c>
       <c r="U97" t="n">
         <v>0.235971717227328</v>
       </c>
       <c r="V97" t="n">
-        <v>0.3122299739571398</v>
+        <v>0.3122299739571425</v>
       </c>
       <c r="W97" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.001867400000000075</v>
+        <v>0.001429500000000417</v>
       </c>
       <c r="Y97" t="n">
         <v>7</v>
@@ -8454,13 +8454,13 @@
         <v>0.1128114286596529</v>
       </c>
       <c r="F98" t="n">
-        <v>39.13994734057271</v>
+        <v>39.1399473405727</v>
       </c>
       <c r="G98" t="n">
-        <v>41.29065923408892</v>
+        <v>41.2906592340889</v>
       </c>
       <c r="H98" t="n">
-        <v>12.19765767359576</v>
+        <v>12.19765767359577</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -8487,22 +8487,22 @@
         <v>48.75693006323856</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.0503131912313225</v>
+        <v>0.05031319123132212</v>
       </c>
       <c r="R98" t="n">
-        <v>1.21152092529706</v>
+        <v>1.211520925297016</v>
       </c>
       <c r="S98" t="n">
-        <v>0.4521116260941191</v>
+        <v>0.4521116260941088</v>
       </c>
       <c r="T98" t="n">
-        <v>1.03903826087077</v>
+        <v>1.039038260870764</v>
       </c>
       <c r="U98" t="n">
-        <v>0.2418183893029453</v>
+        <v>0.2418183893029451</v>
       </c>
       <c r="V98" t="n">
-        <v>0.4773342804246701</v>
+        <v>0.4773342804246681</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002254799999999335</v>
+        <v>0.001820000000002153</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8536,7 +8536,7 @@
         <v>0.1208532747889518</v>
       </c>
       <c r="F99" t="n">
-        <v>38.96558808862912</v>
+        <v>38.9655880886291</v>
       </c>
       <c r="G99" t="n">
         <v>152.6309203923513</v>
@@ -8566,25 +8566,25 @@
         <v>23.78843943226923</v>
       </c>
       <c r="P99" t="n">
-        <v>22.88289792330675</v>
+        <v>22.88289792330674</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.0448634536062652</v>
+        <v>0.04486345360626601</v>
       </c>
       <c r="R99" t="n">
-        <v>0.9705672466166944</v>
+        <v>0.9705672466168016</v>
       </c>
       <c r="S99" t="n">
-        <v>0.3572311538611528</v>
+        <v>0.3572311538611867</v>
       </c>
       <c r="T99" t="n">
-        <v>0.2861537945334839</v>
+        <v>0.286153794533484</v>
       </c>
       <c r="U99" t="n">
-        <v>0.2451342090117343</v>
+        <v>0.2451342090117344</v>
       </c>
       <c r="V99" t="n">
-        <v>0.197373878812393</v>
+        <v>0.1973738788123942</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.002595699999998757</v>
+        <v>0.002154100000005599</v>
       </c>
       <c r="Y99" t="n">
         <v>10</v>
@@ -8624,7 +8624,7 @@
         <v>138.0044818377329</v>
       </c>
       <c r="H100" t="n">
-        <v>9.55529088331409</v>
+        <v>9.555290883314091</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -8651,22 +8651,22 @@
         <v>28.19092443192955</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.04428353370708414</v>
+        <v>0.04428353370708262</v>
       </c>
       <c r="R100" t="n">
-        <v>0.902727365615573</v>
+        <v>0.9027273656155066</v>
       </c>
       <c r="S100" t="n">
-        <v>0.3368383471899144</v>
+        <v>0.3368383471898871</v>
       </c>
       <c r="T100" t="n">
-        <v>0.4100382930133789</v>
+        <v>0.4100382930133711</v>
       </c>
       <c r="U100" t="n">
-        <v>0.2718807822503166</v>
+        <v>0.2718807822503167</v>
       </c>
       <c r="V100" t="n">
-        <v>0.4040605133663172</v>
+        <v>0.4040605133663167</v>
       </c>
       <c r="W100" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002386100000000724</v>
+        <v>0.001796800000001042</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8700,13 +8700,13 @@
         <v>359.9445942104704</v>
       </c>
       <c r="F101" t="n">
-        <v>40.82461760577152</v>
+        <v>40.82461760577157</v>
       </c>
       <c r="G101" t="n">
         <v>119.4736701604198</v>
       </c>
       <c r="H101" t="n">
-        <v>9.071443762555202</v>
+        <v>9.071443762555214</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8730,25 +8730,25 @@
         <v>17.89514601798629</v>
       </c>
       <c r="P101" t="n">
-        <v>34.52237679374142</v>
+        <v>34.52237679374146</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.0505136078721072</v>
+        <v>0.05051360787210591</v>
       </c>
       <c r="R101" t="n">
-        <v>1.132361341454586</v>
+        <v>1.132361341454459</v>
       </c>
       <c r="S101" t="n">
-        <v>0.4252157099021219</v>
+        <v>0.4252157099020762</v>
       </c>
       <c r="T101" t="n">
-        <v>0.5063284782688389</v>
+        <v>0.5063284782688343</v>
       </c>
       <c r="U101" t="n">
-        <v>0.2429983604255213</v>
+        <v>0.2429983604255216</v>
       </c>
       <c r="V101" t="n">
-        <v>0.1581101968196629</v>
+        <v>0.15811019681967</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.004149500000000472</v>
+        <v>0.001820699999996123</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>
